--- a/outfits.xlsx
+++ b/outfits.xlsx
@@ -17,9 +17,11 @@
     <sheet name="Systems" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Turrets" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Unique" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Power(Battery)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Power(Reactor)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Power(Solar)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Systems(Active Cooling)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Systems(Passive Cooling)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Power(Battery)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Power(Reactor)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Power(Solar)" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2057,7 +2059,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -2086,7 +2088,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>120</v>
@@ -2128,7 +2130,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.009999999776482582</v>
+        <v>0.5999999642372131</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -2173,7 +2175,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.01700000092387199</v>
+        <v>1.020000100135803</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -2257,6 +2259,737 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outfit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mass</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>outfit space</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>energy consumption</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>fuel capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>heat capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>active cooling</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cooling energy</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cooling</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>h/s</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>h/e</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cooling Module</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1260</v>
+      </c>
+      <c r="L2" t="n">
+        <v>84</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>252</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ka'het Support Cooling</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>218000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1920</v>
+      </c>
+      <c r="L3" t="n">
+        <v>186</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>240</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10.32258033752441</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ka'het Primary Cooling</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>563000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>3900</v>
+      </c>
+      <c r="L4" t="n">
+        <v>354</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>278.5714416503906</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.01694869995117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liquid Sodium Cooler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1660000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>144</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>680</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>6960</v>
+      </c>
+      <c r="L5" t="n">
+        <v>312</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>204.7058868408203</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15.26315784454346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thermoelectric Cooler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>480</v>
+      </c>
+      <c r="L6" t="n">
+        <v>24</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>120</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Small Hybrid Cooling</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L7" t="n">
+        <v>186</v>
+      </c>
+      <c r="M7" t="n">
+        <v>540</v>
+      </c>
+      <c r="N7" t="n">
+        <v>195</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.387096405029297</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Large Hybrid Cooling</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>200</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7680</v>
+      </c>
+      <c r="L8" t="n">
+        <v>972.0000610351562</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="N8" t="n">
+        <v>228</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.382715225219727</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Successor Cooling</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>94000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>630</v>
+      </c>
+      <c r="L9" t="n">
+        <v>66</v>
+      </c>
+      <c r="M9" t="n">
+        <v>270</v>
+      </c>
+      <c r="N9" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.6363639831543</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outfit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mass</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>outfit space</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cooling</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>h/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hai Williwaw Cooling</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>660</v>
+      </c>
+      <c r="H2" t="n">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cooling Ducts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Water Coolant System</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>720</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liquid Nitrogen Cooler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1740</v>
+      </c>
+      <c r="H5" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liquid Helium Cooler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4140</v>
+      </c>
+      <c r="H6" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Small Heat Shunt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>810</v>
+      </c>
+      <c r="H7" t="n">
+        <v>115.7142868041992</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Large Heat Shunt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>790000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3240</v>
+      </c>
+      <c r="H8" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wanderer Heat Sink</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Systems</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>94000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H9" t="n">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2776,7 +3509,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>174</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="I11" t="n">
         <v>2520</v>
@@ -3409,10 +4142,10 @@
         <v>12</v>
       </c>
       <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.4000000059604645</v>
-      </c>
-      <c r="H26" t="n">
-        <v>24</v>
       </c>
       <c r="I26" t="n">
         <v>13600</v>
@@ -3560,7 +4293,7 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>39</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="I29" t="n">
         <v>1200</v>
@@ -3606,7 +4339,7 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>228</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="I30" t="n">
         <v>2000</v>
@@ -3652,7 +4385,7 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>156</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="I31" t="n">
         <v>3100</v>
@@ -3698,7 +4431,7 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>318</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="I32" t="n">
         <v>8500</v>
@@ -3832,7 +4565,7 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>67.19999694824219</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="I35" t="n">
         <v>7500</v>
@@ -3878,7 +4611,7 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>235.2000122070312</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="I36" t="n">
         <v>30000</v>
@@ -3924,7 +4657,7 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>780</v>
+        <v>13</v>
       </c>
       <c r="I37" t="n">
         <v>1100</v>
@@ -3970,7 +4703,7 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>1260</v>
+        <v>21</v>
       </c>
       <c r="I38" t="n">
         <v>2600</v>
@@ -4016,7 +4749,7 @@
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>1920</v>
+        <v>32</v>
       </c>
       <c r="I39" t="n">
         <v>6700</v>
@@ -4062,7 +4795,7 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>2340</v>
+        <v>39</v>
       </c>
       <c r="I40" t="n">
         <v>8900</v>
@@ -4088,7 +4821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4223,7 +4956,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>3240</v>
+        <v>54</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
@@ -4244,7 +4977,7 @@
         <v>15</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1111111119389534</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="3">
@@ -4271,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>189</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -4292,7 +5025,7 @@
         <v>13.5</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2857142984867096</v>
+        <v>17.14285659790039</v>
       </c>
     </row>
     <row r="4">
@@ -4319,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>-396</v>
+        <v>-6.599999904632568</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
@@ -4340,7 +5073,7 @@
         <v>-16.5</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0833333358168602</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4367,7 +5100,7 @@
         <v>61</v>
       </c>
       <c r="G5" t="n">
-        <v>654</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -4388,7 +5121,7 @@
         <v>8.213115692138672</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7660551071166992</v>
+        <v>45.96330642700195</v>
       </c>
     </row>
     <row r="6">
@@ -4415,7 +5148,7 @@
         <v>106</v>
       </c>
       <c r="G6" t="n">
-        <v>1230</v>
+        <v>20.5</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
@@ -4436,7 +5169,7 @@
         <v>9.764150619506836</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8414633870124817</v>
+        <v>50.4878044128418</v>
       </c>
     </row>
     <row r="7">
@@ -4463,7 +5196,7 @@
         <v>142</v>
       </c>
       <c r="G7" t="n">
-        <v>1716</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
@@ -4484,7 +5217,7 @@
         <v>10.43661975860596</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8636363744735718</v>
+        <v>51.81818008422852</v>
       </c>
     </row>
     <row r="8">
@@ -4511,7 +5244,7 @@
         <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>1140</v>
+        <v>19</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
@@ -4530,7 +5263,7 @@
         <v>14</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5157894492149353</v>
+        <v>30.94736862182617</v>
       </c>
     </row>
     <row r="9">
@@ -4557,7 +5290,7 @@
         <v>98</v>
       </c>
       <c r="G9" t="n">
-        <v>2700</v>
+        <v>45</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
@@ -4576,7 +5309,7 @@
         <v>14.81632614135742</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5377777814865112</v>
+        <v>32.26666641235352</v>
       </c>
     </row>
     <row r="10">
@@ -4603,7 +5336,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>51</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
@@ -4622,7 +5355,7 @@
         <v>6.272727489471436</v>
       </c>
       <c r="T10" t="n">
-        <v>1.352941155433655</v>
+        <v>81.17646789550781</v>
       </c>
     </row>
     <row r="11">
@@ -4649,7 +5382,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="n">
-        <v>207</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
@@ -4668,7 +5401,7 @@
         <v>6.91304349899292</v>
       </c>
       <c r="T11" t="n">
-        <v>1.536231875419617</v>
+        <v>92.17391204833984</v>
       </c>
     </row>
     <row r="12">
@@ -4695,7 +5428,7 @@
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
@@ -4714,7 +5447,7 @@
         <v>3.359999895095825</v>
       </c>
       <c r="T12" t="n">
-        <v>0.699999988079071</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -4741,7 +5474,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>204</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
@@ -4760,7 +5493,7 @@
         <v>4.153846263885498</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7941176295280457</v>
+        <v>47.64705657958984</v>
       </c>
     </row>
     <row r="14">
@@ -4787,7 +5520,7 @@
         <v>87</v>
       </c>
       <c r="G14" t="n">
-        <v>1374</v>
+        <v>22.89999961853027</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
@@ -4806,7 +5539,7 @@
         <v>7.034482955932617</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4454148411750793</v>
+        <v>26.72489166259766</v>
       </c>
     </row>
     <row r="15">
@@ -4833,7 +5566,7 @@
         <v>145</v>
       </c>
       <c r="G15" t="n">
-        <v>2778</v>
+        <v>46.29999923706055</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
@@ -4852,7 +5585,7 @@
         <v>8.234482765197754</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4298056066036224</v>
+        <v>25.78833770751953</v>
       </c>
     </row>
     <row r="16">
@@ -4879,7 +5612,7 @@
         <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>174</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="H16" t="n">
         <v>2520</v>
@@ -4900,7 +5633,7 @@
         <v>3.111111164093018</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4827586114406586</v>
+        <v>28.96551704406738</v>
       </c>
     </row>
     <row r="17">
@@ -4927,7 +5660,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>2040</v>
+        <v>34</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
@@ -4946,7 +5679,7 @@
         <v>11.53333377838135</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5088235139846802</v>
+        <v>30.52941131591797</v>
       </c>
     </row>
     <row r="18">
@@ -4973,7 +5706,7 @@
         <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>1272</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
@@ -4992,7 +5725,7 @@
         <v>9.206896781921387</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4198113083839417</v>
+        <v>25.18867874145508</v>
       </c>
     </row>
     <row r="19">
@@ -5019,7 +5752,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>714</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
@@ -5038,7 +5771,7 @@
         <v>8.4375</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3781512677669525</v>
+        <v>22.6890754699707</v>
       </c>
     </row>
     <row r="20">
@@ -5065,7 +5798,7 @@
         <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>147</v>
+        <v>2.450000047683716</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
@@ -5084,7 +5817,7 @@
         <v>4.125</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6734693646430969</v>
+        <v>40.40816116333008</v>
       </c>
     </row>
     <row r="21">
@@ -5111,7 +5844,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>114</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
@@ -5130,7 +5863,7 @@
         <v>3.599999904632568</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6315789222717285</v>
+        <v>37.89473724365234</v>
       </c>
     </row>
     <row r="22">
@@ -5157,7 +5890,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>174</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
@@ -5176,7 +5909,7 @@
         <v>3.799999952316284</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6551724076271057</v>
+        <v>39.31034469604492</v>
       </c>
     </row>
     <row r="23">
@@ -5203,7 +5936,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>228</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
@@ -5222,7 +5955,7 @@
         <v>3.900000095367432</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6842105388641357</v>
+        <v>41.05263137817383</v>
       </c>
     </row>
     <row r="24">
@@ -5249,7 +5982,7 @@
         <v>60</v>
       </c>
       <c r="G24" t="n">
-        <v>342</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
@@ -5268,7 +6001,7 @@
         <v>4.099999904632568</v>
       </c>
       <c r="T24" t="n">
-        <v>0.719298243522644</v>
+        <v>43.15789794921875</v>
       </c>
     </row>
     <row r="25">
@@ -5295,7 +6028,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="n">
-        <v>468</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
@@ -5314,7 +6047,7 @@
         <v>4.425000190734863</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7564102411270142</v>
+        <v>45.38461303710938</v>
       </c>
     </row>
     <row r="26">
@@ -5341,7 +6074,7 @@
         <v>45</v>
       </c>
       <c r="G26" t="n">
-        <v>1080</v>
+        <v>18</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
@@ -5360,7 +6093,7 @@
         <v>5.866666793823242</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2444444447755814</v>
+        <v>14.66666698455811</v>
       </c>
     </row>
     <row r="27">
@@ -5387,7 +6120,7 @@
         <v>55</v>
       </c>
       <c r="G27" t="n">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
@@ -5406,7 +6139,7 @@
         <v>5.454545497894287</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4166666567325592</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -5433,7 +6166,7 @@
         <v>65</v>
       </c>
       <c r="G28" t="n">
-        <v>900</v>
+        <v>15</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
@@ -5452,7 +6185,7 @@
         <v>6.646153926849365</v>
       </c>
       <c r="T28" t="n">
-        <v>0.4799999892711639</v>
+        <v>28.79999923706055</v>
       </c>
     </row>
     <row r="29">
@@ -5479,7 +6212,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>840</v>
+        <v>14</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
@@ -5498,7 +6231,7 @@
         <v>8</v>
       </c>
       <c r="T29" t="n">
-        <v>0.342857152223587</v>
+        <v>20.5714282989502</v>
       </c>
     </row>
     <row r="30">
@@ -5525,7 +6258,7 @@
         <v>65</v>
       </c>
       <c r="G30" t="n">
-        <v>1500</v>
+        <v>25</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
@@ -5544,7 +6277,7 @@
         <v>8.676922798156738</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3759999871253967</v>
+        <v>22.55999946594238</v>
       </c>
     </row>
     <row r="31">
@@ -5571,7 +6304,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="n">
-        <v>2100</v>
+        <v>35</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
@@ -5590,7 +6323,7 @@
         <v>9.600000381469727</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3657142817974091</v>
+        <v>21.94285774230957</v>
       </c>
     </row>
     <row r="32">
@@ -5617,7 +6350,7 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>2400</v>
+        <v>40</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
@@ -5636,7 +6369,7 @@
         <v>10.92000007629395</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4550000131130219</v>
+        <v>27.29999923706055</v>
       </c>
     </row>
     <row r="33">
@@ -5663,7 +6396,7 @@
         <v>130</v>
       </c>
       <c r="G33" t="n">
-        <v>4200</v>
+        <v>70</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
@@ -5682,7 +6415,7 @@
         <v>11.16923046112061</v>
       </c>
       <c r="T33" t="n">
-        <v>0.345714271068573</v>
+        <v>20.74285697937012</v>
       </c>
     </row>
     <row r="34">
@@ -5709,7 +6442,7 @@
         <v>140</v>
       </c>
       <c r="G34" t="n">
-        <v>3300</v>
+        <v>55</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
@@ -5728,7 +6461,7 @@
         <v>9.814285278320312</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4163636267185211</v>
+        <v>24.9818172454834</v>
       </c>
     </row>
     <row r="35">
@@ -5755,7 +6488,7 @@
         <v>13</v>
       </c>
       <c r="G35" t="n">
-        <v>294</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
@@ -5782,7 +6515,7 @@
         <v>12.92307662963867</v>
       </c>
       <c r="T35" t="n">
-        <v>0.5714285969734192</v>
+        <v>34.28571319580078</v>
       </c>
     </row>
     <row r="36">
@@ -5809,7 +6542,7 @@
         <v>22</v>
       </c>
       <c r="G36" t="n">
-        <v>348</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
@@ -5828,7 +6561,7 @@
         <v>10.3636360168457</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6551724076271057</v>
+        <v>39.31034469604492</v>
       </c>
     </row>
     <row r="37">
@@ -5855,7 +6588,7 @@
         <v>23</v>
       </c>
       <c r="G37" t="n">
-        <v>420</v>
+        <v>7</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
@@ -5874,7 +6607,7 @@
         <v>8.086956977844238</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4428571462631226</v>
+        <v>26.5714282989502</v>
       </c>
     </row>
     <row r="38">
@@ -5901,7 +6634,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="n">
-        <v>780</v>
+        <v>13</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
@@ -5920,7 +6653,7 @@
         <v>8.461538314819336</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4230769276618958</v>
+        <v>25.38461494445801</v>
       </c>
     </row>
     <row r="39">
@@ -5947,7 +6680,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="n">
-        <v>1620</v>
+        <v>27</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
@@ -5966,7 +6699,7 @@
         <v>8.788732528686523</v>
       </c>
       <c r="T39" t="n">
-        <v>0.385185182094574</v>
+        <v>23.11111068725586</v>
       </c>
     </row>
     <row r="40">
@@ -5993,7 +6726,7 @@
         <v>54</v>
       </c>
       <c r="G40" t="n">
-        <v>2160</v>
+        <v>36</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
@@ -6012,7 +6745,7 @@
         <v>13.22222232818604</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3305555582046509</v>
+        <v>19.83333396911621</v>
       </c>
     </row>
     <row r="41">
@@ -6039,7 +6772,7 @@
         <v>93</v>
       </c>
       <c r="G41" t="n">
-        <v>4320</v>
+        <v>72</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
@@ -6058,7 +6791,7 @@
         <v>14.19354820251465</v>
       </c>
       <c r="T41" t="n">
-        <v>0.3055555522441864</v>
+        <v>18.33333396911621</v>
       </c>
     </row>
     <row r="42">
@@ -6085,7 +6818,7 @@
         <v>169</v>
       </c>
       <c r="G42" t="n">
-        <v>9240</v>
+        <v>154</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
@@ -6104,7 +6837,7 @@
         <v>15.47929000854492</v>
       </c>
       <c r="T42" t="n">
-        <v>0.28311687707901</v>
+        <v>16.98701286315918</v>
       </c>
     </row>
     <row r="43">
@@ -6131,7 +6864,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
@@ -6152,7 +6885,7 @@
         <v>60</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -6179,7 +6912,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="n">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
@@ -6202,7 +6935,7 @@
         <v>7.448276042938232</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6000000238418579</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
@@ -6229,7 +6962,7 @@
         <v>98</v>
       </c>
       <c r="G45" t="n">
-        <v>1188</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
@@ -6252,7 +6985,7 @@
         <v>7.775510311126709</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6414141654968262</v>
+        <v>38.4848518371582</v>
       </c>
     </row>
     <row r="46">
@@ -6279,7 +7012,7 @@
         <v>160</v>
       </c>
       <c r="G46" t="n">
-        <v>1890</v>
+        <v>31.5</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
@@ -6302,7 +7035,7 @@
         <v>8.212499618530273</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6952381134033203</v>
+        <v>41.71428680419922</v>
       </c>
     </row>
     <row r="47">
@@ -6329,7 +7062,7 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>39</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="H47" t="n">
         <v>1200</v>
@@ -6350,7 +7083,7 @@
         <v>5.099999904632568</v>
       </c>
       <c r="T47" t="n">
-        <v>1.307692289352417</v>
+        <v>78.46154022216797</v>
       </c>
     </row>
     <row r="48">
@@ -6377,7 +7110,7 @@
         <v>17</v>
       </c>
       <c r="G48" t="n">
-        <v>228</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="H48" t="n">
         <v>2000</v>
@@ -6398,7 +7131,7 @@
         <v>7.941176414489746</v>
       </c>
       <c r="T48" t="n">
-        <v>0.5921052694320679</v>
+        <v>35.52631759643555</v>
       </c>
     </row>
     <row r="49">
@@ -6425,7 +7158,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="n">
-        <v>156</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="H49" t="n">
         <v>3100</v>
@@ -6446,7 +7179,7 @@
         <v>6</v>
       </c>
       <c r="T49" t="n">
-        <v>1.346153855323792</v>
+        <v>80.76923370361328</v>
       </c>
     </row>
     <row r="50">
@@ -6473,7 +7206,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="n">
-        <v>318</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="H50" t="n">
         <v>8500</v>
@@ -6494,7 +7227,7 @@
         <v>6.480000495910645</v>
       </c>
       <c r="T50" t="n">
-        <v>1.528301954269409</v>
+        <v>91.69811248779297</v>
       </c>
     </row>
     <row r="51">
@@ -6521,7 +7254,7 @@
         <v>56</v>
       </c>
       <c r="G51" t="n">
-        <v>876</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
@@ -6544,7 +7277,7 @@
         <v>10.2857141494751</v>
       </c>
       <c r="T51" t="n">
-        <v>0.6575342416763306</v>
+        <v>39.45205307006836</v>
       </c>
     </row>
     <row r="52">
@@ -6571,7 +7304,7 @@
         <v>98</v>
       </c>
       <c r="G52" t="n">
-        <v>1410</v>
+        <v>23.5</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
@@ -6594,7 +7327,7 @@
         <v>10.95918369293213</v>
       </c>
       <c r="T52" t="n">
-        <v>0.7617021203041077</v>
+        <v>45.70212936401367</v>
       </c>
     </row>
     <row r="53">
@@ -6621,7 +7354,7 @@
         <v>145</v>
       </c>
       <c r="G53" t="n">
-        <v>2106</v>
+        <v>35.09999847412109</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
@@ -6644,7 +7377,7 @@
         <v>11.79310321807861</v>
       </c>
       <c r="T53" t="n">
-        <v>0.8119658231735229</v>
+        <v>48.71795272827148</v>
       </c>
     </row>
     <row r="54">
@@ -6671,7 +7404,7 @@
         <v>17</v>
       </c>
       <c r="G54" t="n">
-        <v>67.19999694824219</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="H54" t="n">
         <v>7500</v>
@@ -6692,7 +7425,7 @@
         <v>4.517646789550781</v>
       </c>
       <c r="T54" t="n">
-        <v>1.142857074737549</v>
+        <v>68.57142639160156</v>
       </c>
     </row>
     <row r="55">
@@ -6719,7 +7452,7 @@
         <v>63</v>
       </c>
       <c r="G55" t="n">
-        <v>235.2000122070312</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="H55" t="n">
         <v>30000</v>
@@ -6740,7 +7473,7 @@
         <v>4.723809719085693</v>
       </c>
       <c r="T55" t="n">
-        <v>1.265306115150452</v>
+        <v>75.91836547851562</v>
       </c>
     </row>
     <row r="56">
@@ -6767,7 +7500,7 @@
         <v>47</v>
       </c>
       <c r="G56" t="n">
-        <v>780</v>
+        <v>13</v>
       </c>
       <c r="H56" t="n">
         <v>1100</v>
@@ -6788,7 +7521,7 @@
         <v>10.59574508666992</v>
       </c>
       <c r="T56" t="n">
-        <v>0.6384615302085876</v>
+        <v>38.30769348144531</v>
       </c>
     </row>
     <row r="57">
@@ -6815,7 +7548,7 @@
         <v>82</v>
       </c>
       <c r="G57" t="n">
-        <v>1260</v>
+        <v>21</v>
       </c>
       <c r="H57" t="n">
         <v>2600</v>
@@ -6836,7 +7569,7 @@
         <v>11.12195110321045</v>
       </c>
       <c r="T57" t="n">
-        <v>0.723809540271759</v>
+        <v>43.42856979370117</v>
       </c>
     </row>
     <row r="58">
@@ -6863,7 +7596,7 @@
         <v>127</v>
       </c>
       <c r="G58" t="n">
-        <v>1920</v>
+        <v>32</v>
       </c>
       <c r="H58" t="n">
         <v>6700</v>
@@ -6884,7 +7617,7 @@
         <v>11.74015712738037</v>
       </c>
       <c r="T58" t="n">
-        <v>0.776562511920929</v>
+        <v>46.59375</v>
       </c>
     </row>
     <row r="59">
@@ -6911,7 +7644,7 @@
         <v>152</v>
       </c>
       <c r="G59" t="n">
-        <v>2340</v>
+        <v>39</v>
       </c>
       <c r="H59" t="n">
         <v>8900</v>
@@ -6932,7 +7665,7 @@
         <v>12.35526275634766</v>
       </c>
       <c r="T59" t="n">
-        <v>0.8025640845298767</v>
+        <v>48.15384674072266</v>
       </c>
     </row>
   </sheetData>
@@ -6940,7 +7673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8073,7 +8806,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
@@ -15769,11 +16502,11 @@
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>5.010000228881836</v>
+        <v>300.6000061035156</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>66</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
@@ -15870,11 +16603,11 @@
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>2.490000009536743</v>
+        <v>149.3999938964844</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>36</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -15971,11 +16704,11 @@
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>6.809999942779541</v>
+        <v>408.6000061035156</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>84</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -16072,11 +16805,11 @@
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>10.89999961853027</v>
+        <v>654</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>154.7999877929688</v>
+        <v>2.579999923706055</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -16173,11 +16906,11 @@
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>0.4799999892711639</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>18</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -16665,10 +17398,10 @@
       <c r="AM104" t="inlineStr"/>
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="n">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.4000000059604645</v>
+        <v>24</v>
       </c>
       <c r="AQ104" t="inlineStr"/>
       <c r="AR104" t="inlineStr"/>
@@ -20392,7 +21125,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>1164</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
@@ -20499,7 +21232,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>9360</v>
+        <v>156</v>
       </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
@@ -21622,7 +22355,7 @@
       <c r="AP158" t="inlineStr"/>
       <c r="AQ158" t="inlineStr"/>
       <c r="AR158" t="n">
-        <v>1.5</v>
+        <v>90</v>
       </c>
       <c r="AS158" t="inlineStr"/>
       <c r="AT158" t="inlineStr"/>
@@ -21711,7 +22444,7 @@
       <c r="AP159" t="inlineStr"/>
       <c r="AQ159" t="inlineStr"/>
       <c r="AR159" t="n">
-        <v>3.599999904632568</v>
+        <v>216</v>
       </c>
       <c r="AS159" t="inlineStr"/>
       <c r="AT159" t="inlineStr"/>
@@ -21800,7 +22533,7 @@
       <c r="AP160" t="inlineStr"/>
       <c r="AQ160" t="inlineStr"/>
       <c r="AR160" t="n">
-        <v>6.5</v>
+        <v>390</v>
       </c>
       <c r="AS160" t="inlineStr"/>
       <c r="AT160" t="inlineStr"/>
@@ -21889,7 +22622,7 @@
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="inlineStr"/>
       <c r="AR161" t="n">
-        <v>11.69999980926514</v>
+        <v>702</v>
       </c>
       <c r="AS161" t="inlineStr"/>
       <c r="AT161" t="inlineStr"/>
@@ -21978,7 +22711,7 @@
       <c r="AP162" t="inlineStr"/>
       <c r="AQ162" t="inlineStr"/>
       <c r="AR162" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="AS162" t="inlineStr"/>
       <c r="AT162" t="inlineStr"/>
@@ -22067,7 +22800,7 @@
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
       <c r="AR163" t="n">
-        <v>2.099999904632568</v>
+        <v>125.9999923706055</v>
       </c>
       <c r="AS163" t="inlineStr"/>
       <c r="AT163" t="inlineStr"/>
@@ -22156,7 +22889,7 @@
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>
       <c r="AR164" t="n">
-        <v>3.900000095367432</v>
+        <v>234</v>
       </c>
       <c r="AS164" t="inlineStr"/>
       <c r="AT164" t="inlineStr"/>
@@ -22245,7 +22978,7 @@
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
       <c r="AR165" t="n">
-        <v>6.699999809265137</v>
+        <v>402</v>
       </c>
       <c r="AS165" t="inlineStr"/>
       <c r="AT165" t="inlineStr"/>
@@ -28826,10 +29559,10 @@
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009999999776482582</v>
+        <v>0.5999999642372131</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
@@ -34939,7 +35672,7 @@
         <v>0.03999999910593033</v>
       </c>
       <c r="H3" t="n">
-        <v>84</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -34968,7 +35701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY120"/>
+  <dimension ref="A1:BY104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35598,7 +36331,7 @@
         <v>0.02999999932944775</v>
       </c>
       <c r="O4" t="n">
-        <v>1.200000047683716</v>
+        <v>72</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -35701,7 +36434,7 @@
         <v>0.6000000238418579</v>
       </c>
       <c r="O5" t="n">
-        <v>9</v>
+        <v>540</v>
       </c>
       <c r="P5" t="n">
         <v>-1</v>
@@ -35808,7 +36541,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.6000000238418579</v>
+        <v>36</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -35818,7 +36551,7 @@
         <v>300</v>
       </c>
       <c r="U6" t="n">
-        <v>36</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -36107,7 +36840,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0.449999988079071</v>
+        <v>27</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -36115,7 +36848,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>108</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -36208,7 +36941,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0.119999997317791</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -37537,7 +38270,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -37848,7 +38581,7 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>36</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -37915,11 +38648,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cooling Module</t>
+          <t>Fuel Module</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -37928,10 +38661,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>160000</v>
+        <v>270000</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -37940,7 +38673,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -37949,7 +38682,9 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>400</v>
+      </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
@@ -37976,13 +38711,11 @@
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="AW27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="n">
+        <v>0.25</v>
+      </c>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
@@ -38014,11 +38747,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fuel Module</t>
+          <t>Decoy Plating</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -38027,19 +38760,23 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>270000</v>
+        <v>93000</v>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -38048,9 +38785,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
-        <v>400</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
@@ -38079,9 +38814,7 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
@@ -38113,11 +38846,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Decoy Plating</t>
+          <t>Refueling Module</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -38126,32 +38859,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>93000</v>
+        <v>822000</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.599999904632568</v>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>-100</v>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
@@ -38212,11 +38947,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Refueling Module</t>
+          <t>Shield Refactor Module</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -38225,10 +38960,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>822000</v>
+        <v>3248000</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -38237,22 +38972,16 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.1099999994039536</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
-        <v>-100</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
@@ -38274,17 +39003,27 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
+      <c r="AP30" t="n">
+        <v>-0.25</v>
+      </c>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
+      <c r="AS30" t="n">
+        <v>0.3199999928474426</v>
+      </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
+      <c r="AX30" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>-0.2000000029802322</v>
+      </c>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr"/>
@@ -38313,11 +39052,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Shield Refactor Module</t>
+          <t>Small Recovery Module</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -38326,10 +39065,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3248000</v>
+        <v>625000</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -38338,7 +39077,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -38366,30 +39105,32 @@
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
+      <c r="AM31" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.4300000071525574</v>
+      </c>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="AQ31" t="inlineStr"/>
+        <v>0.4300000071525574</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.9700000286102295</v>
+      </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="n">
-        <v>0.3199999928474426</v>
-      </c>
-      <c r="AT31" t="inlineStr"/>
+        <v>0.699999988079071</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.07000000029802322</v>
+      </c>
       <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="n">
-        <v>0.2000000029802322</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0.2000000029802322</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>-0.2000000029802322</v>
-      </c>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr"/>
@@ -38418,11 +39159,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Small Recovery Module</t>
+          <t>Scanning Module</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -38431,10 +39172,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>625000</v>
+        <v>453600</v>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -38443,7 +39184,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -38456,11 +39197,21 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>18</v>
+      </c>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
@@ -38471,26 +39222,14 @@
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="n">
-        <v>0.9700000286102295</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0.4300000071525574</v>
-      </c>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="n">
-        <v>0.4300000071525574</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>0.9700000286102295</v>
-      </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="n">
-        <v>0.699999988079071</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0.07000000029802322</v>
-      </c>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
@@ -38525,11 +39264,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Scanning Module</t>
+          <t>Outskirts Gauger</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -38538,10 +39277,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>453600</v>
+        <v>1406000</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -38550,11 +39289,13 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>12</v>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -38564,20 +39305,12 @@
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>18</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
@@ -38587,7 +39320,9 @@
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
+      <c r="AL33" t="n">
+        <v>1</v>
+      </c>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
@@ -38630,11 +39365,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Outskirts Gauger</t>
+          <t>Phantom Pallet</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -38643,10 +39378,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1406000</v>
+        <v>12000</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -38654,25 +39389,25 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>8</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>0.02999999932944775</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-1</v>
+      </c>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="n">
-        <v>169</v>
-      </c>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -38685,10 +39420,10 @@
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="n">
+      <c r="AK34" t="n">
         <v>1</v>
       </c>
+      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
@@ -38704,7 +39439,9 @@
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
+      <c r="BB34" t="n">
+        <v>15</v>
+      </c>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
       <c r="BE34" t="inlineStr"/>
@@ -38731,11 +39468,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Phantom Pallet</t>
+          <t>Holovid Zone</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -38744,10 +39481,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12000</v>
+        <v>320000</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2000000029802322</v>
+        <v>20</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -38755,11 +39492,13 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>20</v>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>0.01499999966472387</v>
+        <v>30</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -38767,11 +39506,9 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>1.799999952316284</v>
-      </c>
-      <c r="V35" t="n">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -38806,10 +39543,14 @@
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>150</v>
+      </c>
       <c r="BE35" t="inlineStr"/>
       <c r="BF35" t="inlineStr"/>
       <c r="BG35" t="inlineStr"/>
@@ -38834,11 +39575,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Holovid Zone</t>
+          <t>Hai Cuttlefish Jammer</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -38847,33 +39588,33 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>15</v>
+      </c>
       <c r="L36" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
-        <v>0.5</v>
+        <v>48</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="n">
-        <v>60</v>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -38889,9 +39630,7 @@
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
@@ -38908,15 +39647,9 @@
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>150</v>
-      </c>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
       <c r="BE36" t="inlineStr"/>
       <c r="BF36" t="inlineStr"/>
       <c r="BG36" t="inlineStr"/>
@@ -38941,11 +39674,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hai Cuttlefish Jammer</t>
+          <t>Hai Octopus Jammer</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -38954,7 +39687,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -38965,7 +39698,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>7</v>
@@ -38973,7 +39706,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
-        <v>0.800000011920929</v>
+        <v>72</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -39040,11 +39773,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hai Octopus Jammer</t>
+          <t>Hai Corundum Regenerator</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -39053,26 +39786,24 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>20</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>1.200000047683716</v>
+        <v>18</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -39097,13 +39828,19 @@
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
+      <c r="AM38" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.699999988079071</v>
+      </c>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
+      <c r="AS38" t="n">
+        <v>3</v>
+      </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
@@ -39139,11 +39876,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hai Corundum Regenerator</t>
+          <t>Hai Diamond Regenerator</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -39152,10 +39889,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>300000</v>
+        <v>1150000</v>
       </c>
       <c r="E39" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -39164,12 +39901,12 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>0.300000011920929</v>
+        <v>54</v>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -39195,17 +39932,17 @@
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="n">
-        <v>0.699999988079071</v>
+        <v>2.5</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.699999988079071</v>
+        <v>2.5</v>
       </c>
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
@@ -39242,11 +39979,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hai Diamond Regenerator</t>
+          <t>Quantum Keystone</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -39255,10 +39992,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1150000</v>
+        <v>12000</v>
       </c>
       <c r="E40" t="n">
-        <v>49</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -39267,13 +40004,11 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="n">
-        <v>0.8999999761581421</v>
-      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -39297,19 +40032,13 @@
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="n">
-        <v>9</v>
-      </c>
+      <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
@@ -39322,7 +40051,9 @@
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
       <c r="BE40" t="inlineStr"/>
-      <c r="BF40" t="inlineStr"/>
+      <c r="BF40" t="n">
+        <v>1</v>
+      </c>
       <c r="BG40" t="inlineStr"/>
       <c r="BH40" t="inlineStr"/>
       <c r="BI40" t="inlineStr"/>
@@ -39345,11 +40076,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hai Williwaw Cooling</t>
+          <t>Value Detector</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -39358,10 +40089,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15000</v>
+        <v>260000</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -39370,7 +40101,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -39380,14 +40111,22 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
+      <c r="X41" t="n">
+        <v>35</v>
+      </c>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
+      <c r="AA41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10</v>
+      </c>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
@@ -39416,9 +40155,7 @@
       <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
-      <c r="BE41" t="n">
-        <v>11</v>
-      </c>
+      <c r="BE41" t="inlineStr"/>
       <c r="BF41" t="inlineStr"/>
       <c r="BG41" t="inlineStr"/>
       <c r="BH41" t="inlineStr"/>
@@ -39442,11 +40179,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Quantum Keystone</t>
+          <t>Failed Control System</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -39455,10 +40192,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -39466,9 +40203,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -39493,7 +40228,9 @@
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
+      <c r="AK42" t="n">
+        <v>1</v>
+      </c>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
@@ -39514,10 +40251,10 @@
       <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="inlineStr"/>
       <c r="BE42" t="inlineStr"/>
-      <c r="BF42" t="n">
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="n">
         <v>1</v>
       </c>
-      <c r="BG42" t="inlineStr"/>
       <c r="BH42" t="inlineStr"/>
       <c r="BI42" t="inlineStr"/>
       <c r="BJ42" t="inlineStr"/>
@@ -39539,11 +40276,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Value Detector</t>
+          <t>D14-RN Shield Generator</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -39552,10 +40289,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>260000</v>
+        <v>20000</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -39564,7 +40301,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -39574,22 +40311,14 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="n">
-        <v>120</v>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="n">
-        <v>35</v>
-      </c>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10</v>
-      </c>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
@@ -39600,8 +40329,12 @@
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
+      <c r="AM43" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.2000000029802322</v>
+      </c>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -39642,11 +40375,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Failed Control System</t>
+          <t>D23-QP Shield Generator</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -39655,10 +40388,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -39666,7 +40399,9 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>22</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -39691,12 +40426,14 @@
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="inlineStr"/>
+      <c r="AM44" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.3199999928474426</v>
+      </c>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -39715,9 +40452,7 @@
       <c r="BD44" t="inlineStr"/>
       <c r="BE44" t="inlineStr"/>
       <c r="BF44" t="inlineStr"/>
-      <c r="BG44" t="n">
-        <v>1</v>
-      </c>
+      <c r="BG44" t="inlineStr"/>
       <c r="BH44" t="inlineStr"/>
       <c r="BI44" t="inlineStr"/>
       <c r="BJ44" t="inlineStr"/>
@@ -39739,11 +40474,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cooling Ducts</t>
+          <t>D41-HY Shield Generator</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -39752,10 +40487,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10000</v>
+        <v>65000</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -39764,7 +40499,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -39792,8 +40527,12 @@
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.5099999904632568</v>
+      </c>
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -39810,9 +40549,7 @@
       <c r="BB45" t="inlineStr"/>
       <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="inlineStr"/>
-      <c r="BE45" t="n">
-        <v>5</v>
-      </c>
+      <c r="BE45" t="inlineStr"/>
       <c r="BF45" t="inlineStr"/>
       <c r="BG45" t="inlineStr"/>
       <c r="BH45" t="inlineStr"/>
@@ -39836,11 +40573,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Water Coolant System</t>
+          <t>D67-TM Shield Generator</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -39849,10 +40586,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>25000</v>
+        <v>120000</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -39861,7 +40598,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -39889,8 +40626,12 @@
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
-      <c r="AN46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.8199999928474426</v>
+      </c>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -39907,9 +40648,7 @@
       <c r="BB46" t="inlineStr"/>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
-      <c r="BE46" t="n">
-        <v>12</v>
-      </c>
+      <c r="BE46" t="inlineStr"/>
       <c r="BF46" t="inlineStr"/>
       <c r="BG46" t="inlineStr"/>
       <c r="BH46" t="inlineStr"/>
@@ -39933,11 +40672,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Liquid Nitrogen Cooler</t>
+          <t>D94-YV Shield Generator</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -39946,10 +40685,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -39958,7 +40697,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -39986,8 +40725,12 @@
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.309999942779541</v>
+      </c>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -40004,9 +40747,7 @@
       <c r="BB47" t="inlineStr"/>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
-      <c r="BE47" t="n">
-        <v>29</v>
-      </c>
+      <c r="BE47" t="inlineStr"/>
       <c r="BF47" t="inlineStr"/>
       <c r="BG47" t="inlineStr"/>
       <c r="BH47" t="inlineStr"/>
@@ -40030,11 +40771,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Liquid Helium Cooler</t>
+          <t>S-270 Regenerator</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -40043,10 +40784,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>150000</v>
+        <v>220000</v>
       </c>
       <c r="E48" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -40055,17 +40796,21 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>18</v>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
@@ -40083,8 +40828,12 @@
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
+      <c r="AM48" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0.6000000238418579</v>
+      </c>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -40101,9 +40850,7 @@
       <c r="BB48" t="inlineStr"/>
       <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="inlineStr"/>
-      <c r="BE48" t="n">
-        <v>69</v>
-      </c>
+      <c r="BE48" t="inlineStr"/>
       <c r="BF48" t="inlineStr"/>
       <c r="BG48" t="inlineStr"/>
       <c r="BH48" t="inlineStr"/>
@@ -40127,11 +40874,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D14-RN Shield Generator</t>
+          <t>S-970 Regenerator</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -40140,10 +40887,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>20000</v>
+        <v>800000</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -40152,17 +40899,21 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>54</v>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>6</v>
+      </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
@@ -40181,10 +40932,10 @@
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="n">
-        <v>0.2000000029802322</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.2000000029802322</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr"/>
@@ -40226,11 +40977,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>D23-QP Shield Generator</t>
+          <t>Small Radar Jammer</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -40239,19 +40990,21 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="E50" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -40279,12 +41032,8 @@
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="n">
-        <v>0.3199999928474426</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0.3199999928474426</v>
-      </c>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -40325,11 +41074,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>D41-HY Shield Generator</t>
+          <t>Large Radar Jammer</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -40338,19 +41087,21 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>65000</v>
+        <v>138000</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>10</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -40378,12 +41129,8 @@
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="n">
-        <v>0.5099999904632568</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0.5099999904632568</v>
-      </c>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
@@ -40424,11 +41171,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>D67-TM Shield Generator</t>
+          <t>Ramscoop</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -40437,10 +41184,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="E52" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -40449,9 +41196,11 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>45</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
@@ -40477,12 +41226,8 @@
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="n">
-        <v>0.8199999928474426</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0.8199999928474426</v>
-      </c>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
@@ -40523,11 +41268,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>D94-YV Shield Generator</t>
+          <t>Catalytic Ramscoop</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -40536,10 +41281,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="E53" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -40548,9 +41293,11 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>60</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7</v>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -40576,12 +41323,8 @@
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1.309999942779541</v>
-      </c>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
@@ -40622,11 +41365,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S-270 Regenerator</t>
+          <t>Hyperdrive</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -40635,10 +41378,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>220000</v>
+        <v>50000</v>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -40647,21 +41390,17 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>0.300000011920929</v>
-      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="n">
-        <v>120</v>
-      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -40679,12 +41418,8 @@
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="n">
-        <v>0.6000000238418579</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0.6000000238418579</v>
-      </c>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
@@ -40704,9 +41439,15 @@
       <c r="BE54" t="inlineStr"/>
       <c r="BF54" t="inlineStr"/>
       <c r="BG54" t="inlineStr"/>
-      <c r="BH54" t="inlineStr"/>
-      <c r="BI54" t="inlineStr"/>
-      <c r="BJ54" t="inlineStr"/>
+      <c r="BH54" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1</v>
+      </c>
       <c r="BK54" t="inlineStr"/>
       <c r="BL54" t="inlineStr"/>
       <c r="BM54" t="inlineStr"/>
@@ -40725,11 +41466,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S-970 Regenerator</t>
+          <t>Scram Drive</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -40738,10 +41479,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>800000</v>
+        <v>90000</v>
       </c>
       <c r="E55" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -40750,21 +41491,17 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>0.8999999761581421</v>
-      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="n">
-        <v>360</v>
-      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -40782,12 +41519,8 @@
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="n">
-        <v>2.299999952316284</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>2.299999952316284</v>
-      </c>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
@@ -40808,9 +41541,15 @@
       <c r="BF55" t="inlineStr"/>
       <c r="BG55" t="inlineStr"/>
       <c r="BH55" t="inlineStr"/>
-      <c r="BI55" t="inlineStr"/>
-      <c r="BJ55" t="inlineStr"/>
-      <c r="BK55" t="inlineStr"/>
+      <c r="BI55" t="n">
+        <v>150</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0.2000000029802322</v>
+      </c>
       <c r="BL55" t="inlineStr"/>
       <c r="BM55" t="inlineStr"/>
       <c r="BN55" t="inlineStr"/>
@@ -40828,11 +41567,11 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Small Radar Jammer</t>
+          <t>Jump Drive</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -40841,21 +41580,19 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>24000</v>
+        <v>1000000</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -40904,11 +41641,17 @@
       <c r="BE56" t="inlineStr"/>
       <c r="BF56" t="inlineStr"/>
       <c r="BG56" t="inlineStr"/>
-      <c r="BH56" t="inlineStr"/>
-      <c r="BI56" t="inlineStr"/>
+      <c r="BH56" t="n">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>200</v>
+      </c>
       <c r="BJ56" t="inlineStr"/>
       <c r="BK56" t="inlineStr"/>
-      <c r="BL56" t="inlineStr"/>
+      <c r="BL56" t="n">
+        <v>1</v>
+      </c>
       <c r="BM56" t="inlineStr"/>
       <c r="BN56" t="inlineStr"/>
       <c r="BO56" t="inlineStr"/>
@@ -40925,11 +41668,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Large Radar Jammer</t>
+          <t>Jump Drive (Broken)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -40938,21 +41681,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>138000</v>
+        <v>25000</v>
       </c>
       <c r="E57" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>10</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -41022,11 +41763,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ramscoop</t>
+          <t>Cargo Scanner</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -41035,10 +41776,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>60000</v>
+        <v>8000</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -41047,11 +41788,9 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>10</v>
-      </c>
-      <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
@@ -41065,8 +41804,12 @@
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
+      <c r="AA58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>5</v>
+      </c>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
@@ -41119,11 +41862,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Catalytic Ramscoop</t>
+          <t>Outfit Scanner</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -41132,10 +41875,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>320000</v>
+        <v>24000</v>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -41144,11 +41887,9 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>16</v>
-      </c>
-      <c r="M59" t="n">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
@@ -41160,8 +41901,12 @@
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
+      <c r="Y59" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>15</v>
+      </c>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
@@ -41216,11 +41961,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hyperdrive</t>
+          <t>Asteroid Scanner</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -41229,10 +41974,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>50000</v>
+        <v>61000</v>
       </c>
       <c r="E60" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -41241,7 +41986,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -41259,7 +42004,9 @@
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
+      <c r="AC60" t="n">
+        <v>40</v>
+      </c>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
@@ -41290,15 +42037,9 @@
       <c r="BE60" t="inlineStr"/>
       <c r="BF60" t="inlineStr"/>
       <c r="BG60" t="inlineStr"/>
-      <c r="BH60" t="n">
-        <v>0.2000000029802322</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>100</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>1</v>
-      </c>
+      <c r="BH60" t="inlineStr"/>
+      <c r="BI60" t="inlineStr"/>
+      <c r="BJ60" t="inlineStr"/>
       <c r="BK60" t="inlineStr"/>
       <c r="BL60" t="inlineStr"/>
       <c r="BM60" t="inlineStr"/>
@@ -41317,11 +42058,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Scram Drive</t>
+          <t>Tactical Scanner</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -41330,10 +42071,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>90000</v>
+        <v>144000</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -41342,7 +42083,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -41355,7 +42096,9 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="X61" t="n">
+        <v>32</v>
+      </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
@@ -41392,15 +42135,9 @@
       <c r="BF61" t="inlineStr"/>
       <c r="BG61" t="inlineStr"/>
       <c r="BH61" t="inlineStr"/>
-      <c r="BI61" t="n">
-        <v>150</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>0.2000000029802322</v>
-      </c>
+      <c r="BI61" t="inlineStr"/>
+      <c r="BJ61" t="inlineStr"/>
+      <c r="BK61" t="inlineStr"/>
       <c r="BL61" t="inlineStr"/>
       <c r="BM61" t="inlineStr"/>
       <c r="BN61" t="inlineStr"/>
@@ -41418,11 +42155,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jump Drive</t>
+          <t>Surveillance Pod</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -41431,10 +42168,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1000000</v>
+        <v>122500</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -41443,7 +42180,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -41456,13 +42193,25 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
+      <c r="X62" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>10</v>
+      </c>
       <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
+      <c r="AD62" t="n">
+        <v>100</v>
+      </c>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
@@ -41492,17 +42241,11 @@
       <c r="BE62" t="inlineStr"/>
       <c r="BF62" t="inlineStr"/>
       <c r="BG62" t="inlineStr"/>
-      <c r="BH62" t="n">
-        <v>0.300000011920929</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>200</v>
-      </c>
+      <c r="BH62" t="inlineStr"/>
+      <c r="BI62" t="inlineStr"/>
       <c r="BJ62" t="inlineStr"/>
       <c r="BK62" t="inlineStr"/>
-      <c r="BL62" t="n">
-        <v>1</v>
-      </c>
+      <c r="BL62" t="inlineStr"/>
       <c r="BM62" t="inlineStr"/>
       <c r="BN62" t="inlineStr"/>
       <c r="BO62" t="inlineStr"/>
@@ -41519,11 +42262,11 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jump Drive (Broken)</t>
+          <t>Outfits Expansion</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -41532,19 +42275,21 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>-0.006500000134110451</v>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>20</v>
+        <v>-15</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -41555,7 +42300,9 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="n">
+        <v>-20</v>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -41570,7 +42317,9 @@
       <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
+      <c r="AK63" t="n">
+        <v>1</v>
+      </c>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr"/>
@@ -41598,7 +42347,9 @@
       <c r="BJ63" t="inlineStr"/>
       <c r="BK63" t="inlineStr"/>
       <c r="BL63" t="inlineStr"/>
-      <c r="BM63" t="inlineStr"/>
+      <c r="BM63" t="n">
+        <v>1</v>
+      </c>
       <c r="BN63" t="inlineStr"/>
       <c r="BO63" t="inlineStr"/>
       <c r="BP63" t="inlineStr"/>
@@ -41614,11 +42365,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cargo Scanner</t>
+          <t>Cargo Expansion</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -41627,10 +42378,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -41639,7 +42390,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -41650,17 +42401,15 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="n">
+        <v>15</v>
+      </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>5</v>
-      </c>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
@@ -41669,7 +42418,9 @@
       <c r="AH64" t="inlineStr"/>
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
+      <c r="AK64" t="n">
+        <v>1</v>
+      </c>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr"/>
@@ -41713,11 +42464,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Outfit Scanner</t>
+          <t>Bunk Room</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -41726,10 +42477,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -41738,7 +42489,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -41752,12 +42503,8 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>15</v>
-      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
@@ -41768,7 +42515,9 @@
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
+      <c r="AK65" t="n">
+        <v>1</v>
+      </c>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr"/>
@@ -41797,7 +42546,9 @@
       <c r="BK65" t="inlineStr"/>
       <c r="BL65" t="inlineStr"/>
       <c r="BM65" t="inlineStr"/>
-      <c r="BN65" t="inlineStr"/>
+      <c r="BN65" t="n">
+        <v>4</v>
+      </c>
       <c r="BO65" t="inlineStr"/>
       <c r="BP65" t="inlineStr"/>
       <c r="BQ65" t="inlineStr"/>
@@ -41812,11 +42563,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Asteroid Scanner</t>
+          <t>Small Bunk Room</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -41825,10 +42576,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>61000</v>
+        <v>20000</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -41837,7 +42588,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -41855,9 +42606,7 @@
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="n">
-        <v>40</v>
-      </c>
+      <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
@@ -41865,7 +42614,9 @@
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
+      <c r="AK66" t="n">
+        <v>1</v>
+      </c>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr"/>
@@ -41894,7 +42645,9 @@
       <c r="BK66" t="inlineStr"/>
       <c r="BL66" t="inlineStr"/>
       <c r="BM66" t="inlineStr"/>
-      <c r="BN66" t="inlineStr"/>
+      <c r="BN66" t="n">
+        <v>2</v>
+      </c>
       <c r="BO66" t="inlineStr"/>
       <c r="BP66" t="inlineStr"/>
       <c r="BQ66" t="inlineStr"/>
@@ -41909,11 +42662,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tactical Scanner</t>
+          <t>Brig</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -41922,10 +42675,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>144000</v>
+        <v>40000</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -41934,7 +42687,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -41947,9 +42700,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="n">
-        <v>32</v>
-      </c>
+      <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
@@ -41962,7 +42713,9 @@
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
+      <c r="AK67" t="n">
+        <v>1</v>
+      </c>
       <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr"/>
@@ -42006,11 +42759,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Surveillance Pod</t>
+          <t>Luxury Accommodations</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -42019,10 +42772,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>122500</v>
+        <v>250000</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -42031,7 +42784,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -42044,32 +42797,22 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>10</v>
-      </c>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="n">
-        <v>100</v>
-      </c>
+      <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
+      <c r="AK68" t="n">
+        <v>1</v>
+      </c>
       <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr"/>
@@ -42085,7 +42828,9 @@
       <c r="AX68" t="inlineStr"/>
       <c r="AY68" t="inlineStr"/>
       <c r="AZ68" t="inlineStr"/>
-      <c r="BA68" t="inlineStr"/>
+      <c r="BA68" t="n">
+        <v>2</v>
+      </c>
       <c r="BB68" t="inlineStr"/>
       <c r="BC68" t="inlineStr"/>
       <c r="BD68" t="inlineStr"/>
@@ -42113,11 +42858,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Outfits Expansion</t>
+          <t>Fuel Pod</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -42126,21 +42871,19 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="n">
-        <v>-0.006500000134110451</v>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -42149,11 +42892,11 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
+      <c r="T69" t="n">
+        <v>100</v>
+      </c>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="n">
-        <v>-20</v>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -42168,9 +42911,7 @@
       <c r="AH69" t="inlineStr"/>
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr"/>
-      <c r="AK69" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK69" t="inlineStr"/>
       <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr"/>
@@ -42198,9 +42939,7 @@
       <c r="BJ69" t="inlineStr"/>
       <c r="BK69" t="inlineStr"/>
       <c r="BL69" t="inlineStr"/>
-      <c r="BM69" t="n">
-        <v>1</v>
-      </c>
+      <c r="BM69" t="inlineStr"/>
       <c r="BN69" t="inlineStr"/>
       <c r="BO69" t="inlineStr"/>
       <c r="BP69" t="inlineStr"/>
@@ -42216,11 +42955,11 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cargo Expansion</t>
+          <t>Interference Plating</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -42229,19 +42968,21 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -42252,9 +42993,7 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="n">
-        <v>15</v>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -42269,9 +43008,7 @@
       <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
-      <c r="AK70" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr"/>
@@ -42315,11 +43052,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bunk Room</t>
+          <t>Gas-Class Shield</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -42328,10 +43065,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>40000</v>
+        <v>136000</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -42340,7 +43077,7 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -42350,7 +43087,9 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
@@ -42365,12 +43104,14 @@
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
-      <c r="AK71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ71" t="n">
+        <v>251.9999847412109</v>
+      </c>
+      <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
+      <c r="AM71" t="n">
+        <v>0.1000000014901161</v>
+      </c>
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
@@ -42397,10 +43138,10 @@
       <c r="BK71" t="inlineStr"/>
       <c r="BL71" t="inlineStr"/>
       <c r="BM71" t="inlineStr"/>
-      <c r="BN71" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO71" t="inlineStr"/>
+      <c r="BN71" t="inlineStr"/>
+      <c r="BO71" t="n">
+        <v>0.009999999776482582</v>
+      </c>
       <c r="BP71" t="inlineStr"/>
       <c r="BQ71" t="inlineStr"/>
       <c r="BR71" t="inlineStr"/>
@@ -42414,11 +43155,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>264</v>
+        <v>379</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Small Bunk Room</t>
+          <t>Liquid-Class Shield</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -42427,10 +43168,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>20000</v>
+        <v>216000</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -42439,7 +43180,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -42449,7 +43190,9 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
+      <c r="U72" t="n">
+        <v>6</v>
+      </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
@@ -42464,12 +43207,14 @@
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
-      <c r="AK72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ72" t="n">
+        <v>366</v>
+      </c>
+      <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
+      <c r="AM72" t="n">
+        <v>0.25</v>
+      </c>
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
@@ -42496,10 +43241,10 @@
       <c r="BK72" t="inlineStr"/>
       <c r="BL72" t="inlineStr"/>
       <c r="BM72" t="inlineStr"/>
-      <c r="BN72" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO72" t="inlineStr"/>
+      <c r="BN72" t="inlineStr"/>
+      <c r="BO72" t="n">
+        <v>0.01999999955296516</v>
+      </c>
       <c r="BP72" t="inlineStr"/>
       <c r="BQ72" t="inlineStr"/>
       <c r="BR72" t="inlineStr"/>
@@ -42513,11 +43258,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Brig</t>
+          <t>Anomalous Shield Restorer</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -42526,10 +43271,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>40000</v>
+        <v>22000000</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -42538,7 +43283,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -42568,8 +43313,12 @@
         <v>1</v>
       </c>
       <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
+      <c r="AM73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>6</v>
+      </c>
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
@@ -42597,8 +43346,14 @@
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr"/>
       <c r="BO73" t="inlineStr"/>
-      <c r="BP73" t="inlineStr"/>
-      <c r="BQ73" t="inlineStr"/>
+      <c r="BP73" t="inlineStr">
+        <is>
+          <t>effect/flotsam anomalous shield restorer</t>
+        </is>
+      </c>
+      <c r="BQ73" t="n">
+        <v>0.05000000074505806</v>
+      </c>
       <c r="BR73" t="inlineStr"/>
       <c r="BS73" t="inlineStr"/>
       <c r="BT73" t="inlineStr"/>
@@ -42610,11 +43365,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>266</v>
+        <v>405</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Luxury Accommodations</t>
+          <t>Ka'het Shield Restorer</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -42623,10 +43378,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>250000</v>
+        <v>138000</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -42635,11 +43390,13 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>91.79999542236328</v>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -42661,11 +43418,11 @@
       <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
-      <c r="AK74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
-      <c r="AM74" t="inlineStr"/>
+      <c r="AM74" t="n">
+        <v>1.019999980926514</v>
+      </c>
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
@@ -42679,9 +43436,7 @@
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="inlineStr"/>
       <c r="AZ74" t="inlineStr"/>
-      <c r="BA74" t="n">
-        <v>2</v>
-      </c>
+      <c r="BA74" t="inlineStr"/>
       <c r="BB74" t="inlineStr"/>
       <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="inlineStr"/>
@@ -42709,11 +43464,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>267</v>
+        <v>406</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fuel Pod</t>
+          <t>Ka'het Grand Restorer</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -42722,10 +43477,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20000</v>
+        <v>1022000</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -42734,18 +43489,18 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>637.2000122070312</v>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
-      <c r="T75" t="n">
-        <v>100</v>
-      </c>
+      <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
@@ -42757,7 +43512,9 @@
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
+      <c r="AF75" t="n">
+        <v>7.079999923706055</v>
+      </c>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
       <c r="AI75" t="inlineStr"/>
@@ -42795,7 +43552,9 @@
       <c r="BO75" t="inlineStr"/>
       <c r="BP75" t="inlineStr"/>
       <c r="BQ75" t="inlineStr"/>
-      <c r="BR75" t="inlineStr"/>
+      <c r="BR75" t="n">
+        <v>350</v>
+      </c>
       <c r="BS75" t="inlineStr"/>
       <c r="BT75" t="inlineStr"/>
       <c r="BU75" t="inlineStr"/>
@@ -42806,11 +43565,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>268</v>
+        <v>423</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Interference Plating</t>
+          <t>Systems Core (Tiny)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -42819,21 +43578,19 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>50000</v>
+        <v>621000</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -42853,7 +43610,9 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
+      <c r="AE76" t="n">
+        <v>1300</v>
+      </c>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
@@ -42861,14 +43620,24 @@
       <c r="AJ76" t="inlineStr"/>
       <c r="AK76" t="inlineStr"/>
       <c r="AL76" t="inlineStr"/>
-      <c r="AM76" t="inlineStr"/>
-      <c r="AN76" t="inlineStr"/>
+      <c r="AM76" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.200000047683716</v>
+      </c>
       <c r="AO76" t="inlineStr"/>
-      <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="inlineStr"/>
+      <c r="AP76" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.1000000014901161</v>
+      </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
-      <c r="AT76" t="inlineStr"/>
+      <c r="AT76" t="n">
+        <v>0.1500000059604645</v>
+      </c>
       <c r="AU76" t="inlineStr"/>
       <c r="AV76" t="inlineStr"/>
       <c r="AW76" t="inlineStr"/>
@@ -42903,11 +43672,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Gas-Class Shield</t>
+          <t>Systems Core (Small)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -42916,10 +43685,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>136000</v>
+        <v>1452000</v>
       </c>
       <c r="E77" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
@@ -42928,7 +43697,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -42938,9 +43707,7 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="n">
-        <v>300</v>
-      </c>
+      <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
@@ -42950,26 +43717,34 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
+      <c r="AE77" t="n">
+        <v>2600</v>
+      </c>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="n">
-        <v>251.9999847412109</v>
-      </c>
+      <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="n">
-        <v>0.1000000014901161</v>
-      </c>
-      <c r="AN77" t="inlineStr"/>
+        <v>1.600000023841858</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>2.400000095367432</v>
+      </c>
       <c r="AO77" t="inlineStr"/>
-      <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
+      <c r="AP77" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.2000000029802322</v>
+      </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
+      <c r="AT77" t="n">
+        <v>0.300000011920929</v>
+      </c>
       <c r="AU77" t="inlineStr"/>
       <c r="AV77" t="inlineStr"/>
       <c r="AW77" t="inlineStr"/>
@@ -42990,9 +43765,7 @@
       <c r="BL77" t="inlineStr"/>
       <c r="BM77" t="inlineStr"/>
       <c r="BN77" t="inlineStr"/>
-      <c r="BO77" t="n">
-        <v>0.009999999776482582</v>
-      </c>
+      <c r="BO77" t="inlineStr"/>
       <c r="BP77" t="inlineStr"/>
       <c r="BQ77" t="inlineStr"/>
       <c r="BR77" t="inlineStr"/>
@@ -43006,11 +43779,11 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Liquid-Class Shield</t>
+          <t>Systems Core (Medium)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -43019,10 +43792,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>216000</v>
+        <v>3630000</v>
       </c>
       <c r="E78" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -43031,7 +43804,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -43041,9 +43814,7 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="n">
-        <v>360</v>
-      </c>
+      <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
@@ -43053,26 +43824,34 @@
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
+      <c r="AE78" t="n">
+        <v>5200</v>
+      </c>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="n">
-        <v>366</v>
-      </c>
+      <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
       <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AN78" t="inlineStr"/>
+        <v>3.099999904632568</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>4.599999904632568</v>
+      </c>
       <c r="AO78" t="inlineStr"/>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
+      <c r="AP78" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.4000000059604645</v>
+      </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
+      <c r="AT78" t="n">
+        <v>0.6000000238418579</v>
+      </c>
       <c r="AU78" t="inlineStr"/>
       <c r="AV78" t="inlineStr"/>
       <c r="AW78" t="inlineStr"/>
@@ -43093,9 +43872,7 @@
       <c r="BL78" t="inlineStr"/>
       <c r="BM78" t="inlineStr"/>
       <c r="BN78" t="inlineStr"/>
-      <c r="BO78" t="n">
-        <v>0.01999999955296516</v>
-      </c>
+      <c r="BO78" t="inlineStr"/>
       <c r="BP78" t="inlineStr"/>
       <c r="BQ78" t="inlineStr"/>
       <c r="BR78" t="inlineStr"/>
@@ -43109,11 +43886,11 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Anomalous Shield Restorer</t>
+          <t>Systems Core (Large)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -43122,10 +43899,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>22000000</v>
+        <v>9075000</v>
       </c>
       <c r="E79" t="n">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -43134,7 +43911,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -43154,28 +43931,34 @@
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
+      <c r="AE79" t="n">
+        <v>10400</v>
+      </c>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
       <c r="AM79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN79" t="n">
-        <v>6</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
+      <c r="AP79" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.800000011920929</v>
+      </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
-      <c r="AT79" t="inlineStr"/>
+      <c r="AT79" t="n">
+        <v>1.200000047683716</v>
+      </c>
       <c r="AU79" t="inlineStr"/>
       <c r="AV79" t="inlineStr"/>
       <c r="AW79" t="inlineStr"/>
@@ -43197,14 +43980,8 @@
       <c r="BM79" t="inlineStr"/>
       <c r="BN79" t="inlineStr"/>
       <c r="BO79" t="inlineStr"/>
-      <c r="BP79" t="inlineStr">
-        <is>
-          <t>effect/flotsam anomalous shield restorer</t>
-        </is>
-      </c>
-      <c r="BQ79" t="n">
-        <v>0.05000000074505806</v>
-      </c>
+      <c r="BP79" t="inlineStr"/>
+      <c r="BQ79" t="inlineStr"/>
       <c r="BR79" t="inlineStr"/>
       <c r="BS79" t="inlineStr"/>
       <c r="BT79" t="inlineStr"/>
@@ -43216,11 +43993,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ka'het Support Cooling</t>
+          <t>Fuel Processor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -43229,10 +44006,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>218000</v>
+        <v>400000</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -43241,16 +44018,20 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>8</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
+      <c r="T80" t="n">
+        <v>200</v>
+      </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
@@ -43277,12 +44058,8 @@
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
       <c r="AT80" t="inlineStr"/>
-      <c r="AU80" t="n">
-        <v>32</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>3.099999904632568</v>
-      </c>
+      <c r="AU80" t="inlineStr"/>
+      <c r="AV80" t="inlineStr"/>
       <c r="AW80" t="inlineStr"/>
       <c r="AX80" t="inlineStr"/>
       <c r="AY80" t="inlineStr"/>
@@ -43315,11 +44092,11 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ka'het Primary Cooling</t>
+          <t>Command Center</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -43328,10 +44105,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>563000</v>
+        <v>437000</v>
       </c>
       <c r="E81" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -43340,7 +44117,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -43366,7 +44143,9 @@
       <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr"/>
+      <c r="AK81" t="n">
+        <v>1</v>
+      </c>
       <c r="AL81" t="inlineStr"/>
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr"/>
@@ -43376,17 +44155,15 @@
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
       <c r="AT81" t="inlineStr"/>
-      <c r="AU81" t="n">
-        <v>65</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>5.900000095367432</v>
-      </c>
+      <c r="AU81" t="inlineStr"/>
+      <c r="AV81" t="inlineStr"/>
       <c r="AW81" t="inlineStr"/>
       <c r="AX81" t="inlineStr"/>
       <c r="AY81" t="inlineStr"/>
       <c r="AZ81" t="inlineStr"/>
-      <c r="BA81" t="inlineStr"/>
+      <c r="BA81" t="n">
+        <v>1</v>
+      </c>
       <c r="BB81" t="inlineStr"/>
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="inlineStr"/>
@@ -43399,12 +44176,16 @@
       <c r="BK81" t="inlineStr"/>
       <c r="BL81" t="inlineStr"/>
       <c r="BM81" t="inlineStr"/>
-      <c r="BN81" t="inlineStr"/>
+      <c r="BN81" t="n">
+        <v>1</v>
+      </c>
       <c r="BO81" t="inlineStr"/>
       <c r="BP81" t="inlineStr"/>
       <c r="BQ81" t="inlineStr"/>
       <c r="BR81" t="inlineStr"/>
-      <c r="BS81" t="inlineStr"/>
+      <c r="BS81" t="n">
+        <v>-1</v>
+      </c>
       <c r="BT81" t="inlineStr"/>
       <c r="BU81" t="inlineStr"/>
       <c r="BV81" t="inlineStr"/>
@@ -43414,11 +44195,11 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ka'het Shield Restorer</t>
+          <t>Reasoning Node</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -43427,10 +44208,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>138000</v>
+        <v>23000</v>
       </c>
       <c r="E82" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -43439,13 +44220,11 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="n">
-        <v>1.529999971389771</v>
-      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
@@ -43469,9 +44248,7 @@
       <c r="AJ82" t="inlineStr"/>
       <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="n">
-        <v>1.019999980926514</v>
-      </c>
+      <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr"/>
@@ -43513,11 +44290,11 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ka'het Grand Restorer</t>
+          <t>Control Transceiver</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -43526,10 +44303,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1022000</v>
+        <v>7000</v>
       </c>
       <c r="E83" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -43538,13 +44315,11 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="n">
-        <v>10.61999988555908</v>
-      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
@@ -43561,9 +44336,7 @@
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="n">
-        <v>7.079999923706055</v>
-      </c>
+      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr"/>
       <c r="AI83" t="inlineStr"/>
@@ -43601,9 +44374,7 @@
       <c r="BO83" t="inlineStr"/>
       <c r="BP83" t="inlineStr"/>
       <c r="BQ83" t="inlineStr"/>
-      <c r="BR83" t="n">
-        <v>350</v>
-      </c>
+      <c r="BR83" t="inlineStr"/>
       <c r="BS83" t="inlineStr"/>
       <c r="BT83" t="inlineStr"/>
       <c r="BU83" t="inlineStr"/>
@@ -43614,11 +44385,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Small Heat Shunt</t>
+          <t>Quantum Shield Generator</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -43627,10 +44398,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>180000</v>
+        <v>30000000</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -43639,7 +44410,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -43667,8 +44438,12 @@
       <c r="AJ84" t="inlineStr"/>
       <c r="AK84" t="inlineStr"/>
       <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
-      <c r="AN84" t="inlineStr"/>
+      <c r="AM84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>10</v>
+      </c>
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr"/>
       <c r="AQ84" t="inlineStr"/>
@@ -43685,9 +44460,7 @@
       <c r="BB84" t="inlineStr"/>
       <c r="BC84" t="inlineStr"/>
       <c r="BD84" t="inlineStr"/>
-      <c r="BE84" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="BE84" t="inlineStr"/>
       <c r="BF84" t="inlineStr"/>
       <c r="BG84" t="inlineStr"/>
       <c r="BH84" t="inlineStr"/>
@@ -43711,11 +44484,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Large Heat Shunt</t>
+          <t>Emergency Ramscoop</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -43724,10 +44497,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>790000</v>
+        <v>72000</v>
       </c>
       <c r="E85" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -43736,9 +44509,11 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>24</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.25</v>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
@@ -43782,9 +44557,7 @@
       <c r="BB85" t="inlineStr"/>
       <c r="BC85" t="inlineStr"/>
       <c r="BD85" t="inlineStr"/>
-      <c r="BE85" t="n">
-        <v>54</v>
-      </c>
+      <c r="BE85" t="inlineStr"/>
       <c r="BF85" t="inlineStr"/>
       <c r="BG85" t="inlineStr"/>
       <c r="BH85" t="inlineStr"/>
@@ -43808,11 +44581,11 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Liquid Sodium Cooler</t>
+          <t>Research Laboratory</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -43821,10 +44594,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1660000</v>
+        <v>500000</v>
       </c>
       <c r="E86" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -43833,13 +44606,11 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="n">
-        <v>2.400000095367432</v>
-      </c>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
@@ -43847,23 +44618,31 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="n">
-        <v>680</v>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr"/>
+      <c r="AA86" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>84</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>100</v>
+      </c>
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr"/>
       <c r="AI86" t="inlineStr"/>
       <c r="AJ86" t="inlineStr"/>
-      <c r="AK86" t="inlineStr"/>
+      <c r="AK86" t="n">
+        <v>1</v>
+      </c>
       <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr"/>
@@ -43873,17 +44652,15 @@
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>
       <c r="AT86" t="inlineStr"/>
-      <c r="AU86" t="n">
-        <v>116</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>5.199999809265137</v>
-      </c>
+      <c r="AU86" t="inlineStr"/>
+      <c r="AV86" t="inlineStr"/>
       <c r="AW86" t="inlineStr"/>
       <c r="AX86" t="inlineStr"/>
       <c r="AY86" t="inlineStr"/>
       <c r="AZ86" t="inlineStr"/>
-      <c r="BA86" t="inlineStr"/>
+      <c r="BA86" t="n">
+        <v>1</v>
+      </c>
       <c r="BB86" t="inlineStr"/>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -43911,11 +44688,11 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Systems Core (Tiny)</t>
+          <t>Quantum Key Stone</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -43924,10 +44701,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>621000</v>
+        <v>240000</v>
       </c>
       <c r="E87" t="n">
-        <v>17</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -43936,7 +44713,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -43956,9 +44733,7 @@
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="n">
-        <v>1300</v>
-      </c>
+      <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr"/>
@@ -43966,24 +44741,14 @@
       <c r="AJ87" t="inlineStr"/>
       <c r="AK87" t="inlineStr"/>
       <c r="AL87" t="inlineStr"/>
-      <c r="AM87" t="n">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>1.200000047683716</v>
-      </c>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr"/>
-      <c r="AP87" t="n">
-        <v>0.1000000014901161</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>0.1000000014901161</v>
-      </c>
+      <c r="AP87" t="inlineStr"/>
+      <c r="AQ87" t="inlineStr"/>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
-      <c r="AT87" t="n">
-        <v>0.1500000059604645</v>
-      </c>
+      <c r="AT87" t="inlineStr"/>
       <c r="AU87" t="inlineStr"/>
       <c r="AV87" t="inlineStr"/>
       <c r="AW87" t="inlineStr"/>
@@ -43995,7 +44760,9 @@
       <c r="BC87" t="inlineStr"/>
       <c r="BD87" t="inlineStr"/>
       <c r="BE87" t="inlineStr"/>
-      <c r="BF87" t="inlineStr"/>
+      <c r="BF87" t="n">
+        <v>1</v>
+      </c>
       <c r="BG87" t="inlineStr"/>
       <c r="BH87" t="inlineStr"/>
       <c r="BI87" t="inlineStr"/>
@@ -44018,11 +44785,11 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Systems Core (Small)</t>
+          <t>Salvage Scanner</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -44031,10 +44798,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1452000</v>
+        <v>410000</v>
       </c>
       <c r="E88" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -44043,7 +44810,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -44056,16 +44823,20 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
+      <c r="X88" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>12</v>
+      </c>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="n">
-        <v>2600</v>
-      </c>
+      <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr"/>
@@ -44073,24 +44844,14 @@
       <c r="AJ88" t="inlineStr"/>
       <c r="AK88" t="inlineStr"/>
       <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="n">
-        <v>1.600000023841858</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>2.400000095367432</v>
-      </c>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="n">
-        <v>0.2000000029802322</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>0.2000000029802322</v>
-      </c>
+      <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
       <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr"/>
-      <c r="AT88" t="n">
-        <v>0.300000011920929</v>
-      </c>
+      <c r="AT88" t="inlineStr"/>
       <c r="AU88" t="inlineStr"/>
       <c r="AV88" t="inlineStr"/>
       <c r="AW88" t="inlineStr"/>
@@ -44125,11 +44886,11 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>425</v>
+        <v>532</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Systems Core (Medium)</t>
+          <t>Electronic Warfare System</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -44138,23 +44899,29 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3630000</v>
+        <v>3400000</v>
       </c>
       <c r="E89" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" t="n">
+        <v>12</v>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
@@ -44163,41 +44930,33 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
+      <c r="X89" t="n">
+        <v>25</v>
+      </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="n">
-        <v>5200</v>
-      </c>
+      <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
       <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr"/>
       <c r="AK89" t="inlineStr"/>
-      <c r="AL89" t="inlineStr"/>
-      <c r="AM89" t="n">
-        <v>3.099999904632568</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>4.599999904632568</v>
-      </c>
+      <c r="AL89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr"/>
-      <c r="AP89" t="n">
-        <v>0.4000000059604645</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>0.4000000059604645</v>
-      </c>
+      <c r="AP89" t="inlineStr"/>
+      <c r="AQ89" t="inlineStr"/>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
-      <c r="AT89" t="n">
-        <v>0.6000000238418579</v>
-      </c>
+      <c r="AT89" t="inlineStr"/>
       <c r="AU89" t="inlineStr"/>
       <c r="AV89" t="inlineStr"/>
       <c r="AW89" t="inlineStr"/>
@@ -44232,11 +44991,11 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>426</v>
+        <v>542</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Systems Core (Large)</t>
+          <t>`"Byiaa" Shield Cortex`</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -44245,10 +45004,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>9075000</v>
+        <v>225000</v>
       </c>
       <c r="E90" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -44257,7 +45016,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -44277,9 +45036,7 @@
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="n">
-        <v>10400</v>
-      </c>
+      <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr"/>
@@ -44288,23 +45045,17 @@
       <c r="AK90" t="inlineStr"/>
       <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="n">
-        <v>6</v>
+        <v>1.899999976158142</v>
       </c>
       <c r="AN90" t="n">
-        <v>8.800000190734863</v>
+        <v>2.920000076293945</v>
       </c>
       <c r="AO90" t="inlineStr"/>
-      <c r="AP90" t="n">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>0.800000011920929</v>
-      </c>
+      <c r="AP90" t="inlineStr"/>
+      <c r="AQ90" t="inlineStr"/>
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
-      <c r="AT90" t="n">
-        <v>1.200000047683716</v>
-      </c>
+      <c r="AT90" t="inlineStr"/>
       <c r="AU90" t="inlineStr"/>
       <c r="AV90" t="inlineStr"/>
       <c r="AW90" t="inlineStr"/>
@@ -44330,8 +45081,12 @@
       <c r="BQ90" t="inlineStr"/>
       <c r="BR90" t="inlineStr"/>
       <c r="BS90" t="inlineStr"/>
-      <c r="BT90" t="inlineStr"/>
-      <c r="BU90" t="inlineStr"/>
+      <c r="BT90" t="n">
+        <v>-0.3300000131130219</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>1</v>
+      </c>
       <c r="BV90" t="inlineStr"/>
       <c r="BW90" t="inlineStr"/>
       <c r="BX90" t="inlineStr"/>
@@ -44339,11 +45094,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>427</v>
+        <v>543</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fuel Processor</t>
+          <t>`"Ej" Shield Cortex`</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -44352,10 +45107,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>400000</v>
+        <v>565000</v>
       </c>
       <c r="E91" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -44364,20 +45119,16 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>14</v>
-      </c>
-      <c r="M91" t="n">
-        <v>2</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
-      <c r="T91" t="n">
-        <v>200</v>
-      </c>
+      <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
@@ -44396,8 +45147,12 @@
       <c r="AJ91" t="inlineStr"/>
       <c r="AK91" t="inlineStr"/>
       <c r="AL91" t="inlineStr"/>
-      <c r="AM91" t="inlineStr"/>
-      <c r="AN91" t="inlineStr"/>
+      <c r="AM91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>4.699999809265137</v>
+      </c>
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr"/>
       <c r="AQ91" t="inlineStr"/>
@@ -44429,8 +45184,12 @@
       <c r="BQ91" t="inlineStr"/>
       <c r="BR91" t="inlineStr"/>
       <c r="BS91" t="inlineStr"/>
-      <c r="BT91" t="inlineStr"/>
-      <c r="BU91" t="inlineStr"/>
+      <c r="BT91" t="n">
+        <v>-0.3300000131130219</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>1</v>
+      </c>
       <c r="BV91" t="inlineStr"/>
       <c r="BW91" t="inlineStr"/>
       <c r="BX91" t="inlineStr"/>
@@ -44438,11 +45197,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>428</v>
+        <v>544</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Command Center</t>
+          <t>`"Jaase" Shield Cortex`</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -44451,10 +45210,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>437000</v>
+        <v>3550000</v>
       </c>
       <c r="E92" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -44463,7 +45222,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -44489,12 +45248,14 @@
       <c r="AH92" t="inlineStr"/>
       <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr"/>
-      <c r="AK92" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK92" t="inlineStr"/>
       <c r="AL92" t="inlineStr"/>
-      <c r="AM92" t="inlineStr"/>
-      <c r="AN92" t="inlineStr"/>
+      <c r="AM92" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>7.400000095367432</v>
+      </c>
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr"/>
       <c r="AQ92" t="inlineStr"/>
@@ -44507,9 +45268,7 @@
       <c r="AX92" t="inlineStr"/>
       <c r="AY92" t="inlineStr"/>
       <c r="AZ92" t="inlineStr"/>
-      <c r="BA92" t="n">
-        <v>1</v>
-      </c>
+      <c r="BA92" t="inlineStr"/>
       <c r="BB92" t="inlineStr"/>
       <c r="BC92" t="inlineStr"/>
       <c r="BD92" t="inlineStr"/>
@@ -44522,18 +45281,18 @@
       <c r="BK92" t="inlineStr"/>
       <c r="BL92" t="inlineStr"/>
       <c r="BM92" t="inlineStr"/>
-      <c r="BN92" t="n">
-        <v>1</v>
-      </c>
+      <c r="BN92" t="inlineStr"/>
       <c r="BO92" t="inlineStr"/>
       <c r="BP92" t="inlineStr"/>
       <c r="BQ92" t="inlineStr"/>
       <c r="BR92" t="inlineStr"/>
-      <c r="BS92" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BT92" t="inlineStr"/>
-      <c r="BU92" t="inlineStr"/>
+      <c r="BS92" t="inlineStr"/>
+      <c r="BT92" t="n">
+        <v>-0.3300000131130219</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>1</v>
+      </c>
       <c r="BV92" t="inlineStr"/>
       <c r="BW92" t="inlineStr"/>
       <c r="BX92" t="inlineStr"/>
@@ -44541,11 +45300,11 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>429</v>
+        <v>545</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Reasoning Node</t>
+          <t>`"Jorv" Shield Cortex`</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -44554,10 +45313,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>23000</v>
+        <v>8250000</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -44566,7 +45325,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -44594,8 +45353,12 @@
       <c r="AJ93" t="inlineStr"/>
       <c r="AK93" t="inlineStr"/>
       <c r="AL93" t="inlineStr"/>
-      <c r="AM93" t="inlineStr"/>
-      <c r="AN93" t="inlineStr"/>
+      <c r="AM93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>16.10000038146973</v>
+      </c>
       <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr"/>
       <c r="AQ93" t="inlineStr"/>
@@ -44627,8 +45390,12 @@
       <c r="BQ93" t="inlineStr"/>
       <c r="BR93" t="inlineStr"/>
       <c r="BS93" t="inlineStr"/>
-      <c r="BT93" t="inlineStr"/>
-      <c r="BU93" t="inlineStr"/>
+      <c r="BT93" t="n">
+        <v>-0.3300000131130219</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>1</v>
+      </c>
       <c r="BV93" t="inlineStr"/>
       <c r="BW93" t="inlineStr"/>
       <c r="BX93" t="inlineStr"/>
@@ -44636,11 +45403,11 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>430</v>
+        <v>546</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Control Transceiver</t>
+          <t>Shield Cortex Interface</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -44649,10 +45416,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>7000</v>
+        <v>250000</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -44661,7 +45428,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
@@ -44701,7 +45468,9 @@
       <c r="AV94" t="inlineStr"/>
       <c r="AW94" t="inlineStr"/>
       <c r="AX94" t="inlineStr"/>
-      <c r="AY94" t="inlineStr"/>
+      <c r="AY94" t="n">
+        <v>-0.05000000074505806</v>
+      </c>
       <c r="AZ94" t="inlineStr"/>
       <c r="BA94" t="inlineStr"/>
       <c r="BB94" t="inlineStr"/>
@@ -44722,8 +45491,12 @@
       <c r="BQ94" t="inlineStr"/>
       <c r="BR94" t="inlineStr"/>
       <c r="BS94" t="inlineStr"/>
-      <c r="BT94" t="inlineStr"/>
-      <c r="BU94" t="inlineStr"/>
+      <c r="BT94" t="n">
+        <v>0.3300000131130219</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>-2</v>
+      </c>
       <c r="BV94" t="inlineStr"/>
       <c r="BW94" t="inlineStr"/>
       <c r="BX94" t="inlineStr"/>
@@ -44731,11 +45504,11 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Quantum Shield Generator</t>
+          <t>Successor Fuel Sail</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -44744,26 +45517,32 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>30000000</v>
+        <v>112000</v>
       </c>
       <c r="E95" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>120</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0.1000000014901161</v>
+      </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
@@ -44784,12 +45563,8 @@
       <c r="AJ95" t="inlineStr"/>
       <c r="AK95" t="inlineStr"/>
       <c r="AL95" t="inlineStr"/>
-      <c r="AM95" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>10</v>
-      </c>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
       <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr"/>
       <c r="AQ95" t="inlineStr"/>
@@ -44830,11 +45605,11 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Thermoelectric Cooler</t>
+          <t>`"Veldt" Combat Scanner`</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -44843,10 +45618,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -44855,11 +45630,13 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>7.199999809265137</v>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -44868,11 +45645,17 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
+      <c r="X96" t="n">
+        <v>50</v>
+      </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
+      <c r="AA96" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>15</v>
+      </c>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
       <c r="AE96" t="inlineStr"/>
@@ -44891,12 +45674,8 @@
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
       <c r="AT96" t="inlineStr"/>
-      <c r="AU96" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>0.4000000059604645</v>
-      </c>
+      <c r="AU96" t="inlineStr"/>
+      <c r="AV96" t="inlineStr"/>
       <c r="AW96" t="inlineStr"/>
       <c r="AX96" t="inlineStr"/>
       <c r="AY96" t="inlineStr"/>
@@ -44929,11 +45708,11 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Emergency Ramscoop</t>
+          <t>`"Tuur" Scanning Suite`</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -44942,7 +45721,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>72000</v>
+        <v>220000</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -44956,11 +45735,11 @@
       <c r="L97" t="n">
         <v>4</v>
       </c>
-      <c r="M97" t="n">
-        <v>1.25</v>
-      </c>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" t="n">
+        <v>6</v>
+      </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
@@ -44974,8 +45753,12 @@
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
-      <c r="AD97" t="inlineStr"/>
+      <c r="AC97" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>100</v>
+      </c>
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="inlineStr"/>
@@ -45026,11 +45809,11 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Research Laboratory</t>
+          <t>Multimodal Armor: Heavy</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -45038,21 +45821,15 @@
           <t>Systems</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>500000</v>
-      </c>
-      <c r="E98" t="n">
-        <v>11</v>
-      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>6</v>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -45067,18 +45844,10 @@
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>84</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>100</v>
-      </c>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="inlineStr"/>
@@ -45103,9 +45872,7 @@
       <c r="AX98" t="inlineStr"/>
       <c r="AY98" t="inlineStr"/>
       <c r="AZ98" t="inlineStr"/>
-      <c r="BA98" t="n">
-        <v>1</v>
-      </c>
+      <c r="BA98" t="inlineStr"/>
       <c r="BB98" t="inlineStr"/>
       <c r="BC98" t="inlineStr"/>
       <c r="BD98" t="inlineStr"/>
@@ -45126,18 +45893,22 @@
       <c r="BS98" t="inlineStr"/>
       <c r="BT98" t="inlineStr"/>
       <c r="BU98" t="inlineStr"/>
-      <c r="BV98" t="inlineStr"/>
-      <c r="BW98" t="inlineStr"/>
+      <c r="BV98" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>-1</v>
+      </c>
       <c r="BX98" t="inlineStr"/>
       <c r="BY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Quantum Key Stone</t>
+          <t>Multimodal Armor: Keystone</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -45146,20 +45917,18 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>240000</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.1000000014901161</v>
-      </c>
+        <v>10000000</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -45184,7 +45953,9 @@
       <c r="AH99" t="inlineStr"/>
       <c r="AI99" t="inlineStr"/>
       <c r="AJ99" t="inlineStr"/>
-      <c r="AK99" t="inlineStr"/>
+      <c r="AK99" t="n">
+        <v>1</v>
+      </c>
       <c r="AL99" t="inlineStr"/>
       <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr"/>
@@ -45224,17 +45995,19 @@
       <c r="BT99" t="inlineStr"/>
       <c r="BU99" t="inlineStr"/>
       <c r="BV99" t="inlineStr"/>
-      <c r="BW99" t="inlineStr"/>
+      <c r="BW99" t="n">
+        <v>-1</v>
+      </c>
       <c r="BX99" t="inlineStr"/>
       <c r="BY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Salvage Scanner</t>
+          <t>Multimodal Armor: Regen</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -45242,21 +46015,15 @@
           <t>Systems</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>410000</v>
-      </c>
-      <c r="E100" t="n">
-        <v>7</v>
-      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>7</v>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -45268,15 +46035,9 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
-      <c r="X100" t="n">
-        <v>84</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>12</v>
-      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
@@ -45287,7 +46048,9 @@
       <c r="AH100" t="inlineStr"/>
       <c r="AI100" t="inlineStr"/>
       <c r="AJ100" t="inlineStr"/>
-      <c r="AK100" t="inlineStr"/>
+      <c r="AK100" t="n">
+        <v>1</v>
+      </c>
       <c r="AL100" t="inlineStr"/>
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr"/>
@@ -45302,7 +46065,9 @@
       <c r="AW100" t="inlineStr"/>
       <c r="AX100" t="inlineStr"/>
       <c r="AY100" t="inlineStr"/>
-      <c r="AZ100" t="inlineStr"/>
+      <c r="AZ100" t="n">
+        <v>0.75</v>
+      </c>
       <c r="BA100" t="inlineStr"/>
       <c r="BB100" t="inlineStr"/>
       <c r="BC100" t="inlineStr"/>
@@ -45325,17 +46090,19 @@
       <c r="BT100" t="inlineStr"/>
       <c r="BU100" t="inlineStr"/>
       <c r="BV100" t="inlineStr"/>
-      <c r="BW100" t="inlineStr"/>
+      <c r="BW100" t="n">
+        <v>-1</v>
+      </c>
       <c r="BX100" t="inlineStr"/>
       <c r="BY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Small Hybrid Cooling</t>
+          <t>Multimodal Armor: Resilient</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -45343,21 +46110,15 @@
           <t>Systems</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E101" t="n">
-        <v>8</v>
-      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>8</v>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -45382,10 +46143,10 @@
       <c r="AH101" t="inlineStr"/>
       <c r="AI101" t="inlineStr"/>
       <c r="AJ101" t="inlineStr"/>
-      <c r="AK101" t="inlineStr"/>
-      <c r="AL101" t="n">
+      <c r="AK101" t="n">
         <v>1</v>
       </c>
+      <c r="AL101" t="inlineStr"/>
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr"/>
@@ -45394,12 +46155,8 @@
       <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr"/>
       <c r="AT101" t="inlineStr"/>
-      <c r="AU101" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV101" t="n">
-        <v>3.099999904632568</v>
-      </c>
+      <c r="AU101" t="inlineStr"/>
+      <c r="AV101" t="inlineStr"/>
       <c r="AW101" t="inlineStr"/>
       <c r="AX101" t="inlineStr"/>
       <c r="AY101" t="inlineStr"/>
@@ -45408,9 +46165,7 @@
       <c r="BB101" t="inlineStr"/>
       <c r="BC101" t="inlineStr"/>
       <c r="BD101" t="inlineStr"/>
-      <c r="BE101" t="n">
-        <v>9</v>
-      </c>
+      <c r="BE101" t="inlineStr"/>
       <c r="BF101" t="inlineStr"/>
       <c r="BG101" t="inlineStr"/>
       <c r="BH101" t="inlineStr"/>
@@ -45428,17 +46183,23 @@
       <c r="BT101" t="inlineStr"/>
       <c r="BU101" t="inlineStr"/>
       <c r="BV101" t="inlineStr"/>
-      <c r="BW101" t="inlineStr"/>
-      <c r="BX101" t="inlineStr"/>
-      <c r="BY101" t="inlineStr"/>
+      <c r="BW101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BX101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BY101" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Large Hybrid Cooling</t>
+          <t>Bright Cloud Shielding</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -45447,10 +46208,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1000000</v>
+        <v>220000</v>
       </c>
       <c r="E102" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -45459,7 +46220,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
@@ -45468,9 +46229,7 @@
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
-      <c r="T102" t="n">
-        <v>200</v>
-      </c>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
@@ -45488,23 +46247,21 @@
       <c r="AI102" t="inlineStr"/>
       <c r="AJ102" t="inlineStr"/>
       <c r="AK102" t="inlineStr"/>
-      <c r="AL102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM102" t="inlineStr"/>
-      <c r="AN102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>3</v>
+      </c>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
       <c r="AQ102" t="inlineStr"/>
       <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr"/>
       <c r="AT102" t="inlineStr"/>
-      <c r="AU102" t="n">
-        <v>128</v>
-      </c>
-      <c r="AV102" t="n">
-        <v>16.20000076293945</v>
-      </c>
+      <c r="AU102" t="inlineStr"/>
+      <c r="AV102" t="inlineStr"/>
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr"/>
       <c r="AY102" t="inlineStr"/>
@@ -45513,9 +46270,7 @@
       <c r="BB102" t="inlineStr"/>
       <c r="BC102" t="inlineStr"/>
       <c r="BD102" t="inlineStr"/>
-      <c r="BE102" t="n">
-        <v>24</v>
-      </c>
+      <c r="BE102" t="inlineStr"/>
       <c r="BF102" t="inlineStr"/>
       <c r="BG102" t="inlineStr"/>
       <c r="BH102" t="inlineStr"/>
@@ -45539,11 +46294,11 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Electronic Warfare System</t>
+          <t>Dark Storm Shielding</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -45552,29 +46307,23 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3400000</v>
+        <v>800000</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>10</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="n">
-        <v>0.2000000029802322</v>
-      </c>
+      <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
@@ -45583,9 +46332,7 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
-      <c r="X103" t="n">
-        <v>25</v>
-      </c>
+      <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
@@ -45599,11 +46346,13 @@
       <c r="AI103" t="inlineStr"/>
       <c r="AJ103" t="inlineStr"/>
       <c r="AK103" t="inlineStr"/>
-      <c r="AL103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM103" t="inlineStr"/>
-      <c r="AN103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>7</v>
+      </c>
       <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
@@ -45644,11 +46393,11 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>542</v>
+        <v>593</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>`"Byiaa" Shield Cortex`</t>
+          <t>Wanderer Ramscoop</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -45657,10 +46406,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>225000</v>
+        <v>460000</v>
       </c>
       <c r="E104" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -45669,9 +46418,11 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>13</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
@@ -45697,12 +46448,8 @@
       <c r="AJ104" t="inlineStr"/>
       <c r="AK104" t="inlineStr"/>
       <c r="AL104" t="inlineStr"/>
-      <c r="AM104" t="n">
-        <v>1.899999976158142</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>2.920000076293945</v>
-      </c>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr"/>
       <c r="AQ104" t="inlineStr"/>
@@ -45734,1610 +46481,12 @@
       <c r="BQ104" t="inlineStr"/>
       <c r="BR104" t="inlineStr"/>
       <c r="BS104" t="inlineStr"/>
-      <c r="BT104" t="n">
-        <v>-0.3300000131130219</v>
-      </c>
-      <c r="BU104" t="n">
-        <v>1</v>
-      </c>
+      <c r="BT104" t="inlineStr"/>
+      <c r="BU104" t="inlineStr"/>
       <c r="BV104" t="inlineStr"/>
       <c r="BW104" t="inlineStr"/>
       <c r="BX104" t="inlineStr"/>
       <c r="BY104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>`"Ej" Shield Cortex`</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>565000</v>
-      </c>
-      <c r="E105" t="n">
-        <v>21</v>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>21</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
-      <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr"/>
-      <c r="AH105" t="inlineStr"/>
-      <c r="AI105" t="inlineStr"/>
-      <c r="AJ105" t="inlineStr"/>
-      <c r="AK105" t="inlineStr"/>
-      <c r="AL105" t="inlineStr"/>
-      <c r="AM105" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>4.699999809265137</v>
-      </c>
-      <c r="AO105" t="inlineStr"/>
-      <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
-      <c r="AT105" t="inlineStr"/>
-      <c r="AU105" t="inlineStr"/>
-      <c r="AV105" t="inlineStr"/>
-      <c r="AW105" t="inlineStr"/>
-      <c r="AX105" t="inlineStr"/>
-      <c r="AY105" t="inlineStr"/>
-      <c r="AZ105" t="inlineStr"/>
-      <c r="BA105" t="inlineStr"/>
-      <c r="BB105" t="inlineStr"/>
-      <c r="BC105" t="inlineStr"/>
-      <c r="BD105" t="inlineStr"/>
-      <c r="BE105" t="inlineStr"/>
-      <c r="BF105" t="inlineStr"/>
-      <c r="BG105" t="inlineStr"/>
-      <c r="BH105" t="inlineStr"/>
-      <c r="BI105" t="inlineStr"/>
-      <c r="BJ105" t="inlineStr"/>
-      <c r="BK105" t="inlineStr"/>
-      <c r="BL105" t="inlineStr"/>
-      <c r="BM105" t="inlineStr"/>
-      <c r="BN105" t="inlineStr"/>
-      <c r="BO105" t="inlineStr"/>
-      <c r="BP105" t="inlineStr"/>
-      <c r="BQ105" t="inlineStr"/>
-      <c r="BR105" t="inlineStr"/>
-      <c r="BS105" t="inlineStr"/>
-      <c r="BT105" t="n">
-        <v>-0.3300000131130219</v>
-      </c>
-      <c r="BU105" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV105" t="inlineStr"/>
-      <c r="BW105" t="inlineStr"/>
-      <c r="BX105" t="inlineStr"/>
-      <c r="BY105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>`"Jaase" Shield Cortex`</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>3550000</v>
-      </c>
-      <c r="E106" t="n">
-        <v>30</v>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>30</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
-      <c r="AF106" t="inlineStr"/>
-      <c r="AG106" t="inlineStr"/>
-      <c r="AH106" t="inlineStr"/>
-      <c r="AI106" t="inlineStr"/>
-      <c r="AJ106" t="inlineStr"/>
-      <c r="AK106" t="inlineStr"/>
-      <c r="AL106" t="inlineStr"/>
-      <c r="AM106" t="n">
-        <v>4.800000190734863</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>7.400000095367432</v>
-      </c>
-      <c r="AO106" t="inlineStr"/>
-      <c r="AP106" t="inlineStr"/>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
-      <c r="AS106" t="inlineStr"/>
-      <c r="AT106" t="inlineStr"/>
-      <c r="AU106" t="inlineStr"/>
-      <c r="AV106" t="inlineStr"/>
-      <c r="AW106" t="inlineStr"/>
-      <c r="AX106" t="inlineStr"/>
-      <c r="AY106" t="inlineStr"/>
-      <c r="AZ106" t="inlineStr"/>
-      <c r="BA106" t="inlineStr"/>
-      <c r="BB106" t="inlineStr"/>
-      <c r="BC106" t="inlineStr"/>
-      <c r="BD106" t="inlineStr"/>
-      <c r="BE106" t="inlineStr"/>
-      <c r="BF106" t="inlineStr"/>
-      <c r="BG106" t="inlineStr"/>
-      <c r="BH106" t="inlineStr"/>
-      <c r="BI106" t="inlineStr"/>
-      <c r="BJ106" t="inlineStr"/>
-      <c r="BK106" t="inlineStr"/>
-      <c r="BL106" t="inlineStr"/>
-      <c r="BM106" t="inlineStr"/>
-      <c r="BN106" t="inlineStr"/>
-      <c r="BO106" t="inlineStr"/>
-      <c r="BP106" t="inlineStr"/>
-      <c r="BQ106" t="inlineStr"/>
-      <c r="BR106" t="inlineStr"/>
-      <c r="BS106" t="inlineStr"/>
-      <c r="BT106" t="n">
-        <v>-0.3300000131130219</v>
-      </c>
-      <c r="BU106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV106" t="inlineStr"/>
-      <c r="BW106" t="inlineStr"/>
-      <c r="BX106" t="inlineStr"/>
-      <c r="BY106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>`"Jorv" Shield Cortex`</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>8250000</v>
-      </c>
-      <c r="E107" t="n">
-        <v>55</v>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>55</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
-      <c r="AF107" t="inlineStr"/>
-      <c r="AG107" t="inlineStr"/>
-      <c r="AH107" t="inlineStr"/>
-      <c r="AI107" t="inlineStr"/>
-      <c r="AJ107" t="inlineStr"/>
-      <c r="AK107" t="inlineStr"/>
-      <c r="AL107" t="inlineStr"/>
-      <c r="AM107" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>16.10000038146973</v>
-      </c>
-      <c r="AO107" t="inlineStr"/>
-      <c r="AP107" t="inlineStr"/>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
-      <c r="AT107" t="inlineStr"/>
-      <c r="AU107" t="inlineStr"/>
-      <c r="AV107" t="inlineStr"/>
-      <c r="AW107" t="inlineStr"/>
-      <c r="AX107" t="inlineStr"/>
-      <c r="AY107" t="inlineStr"/>
-      <c r="AZ107" t="inlineStr"/>
-      <c r="BA107" t="inlineStr"/>
-      <c r="BB107" t="inlineStr"/>
-      <c r="BC107" t="inlineStr"/>
-      <c r="BD107" t="inlineStr"/>
-      <c r="BE107" t="inlineStr"/>
-      <c r="BF107" t="inlineStr"/>
-      <c r="BG107" t="inlineStr"/>
-      <c r="BH107" t="inlineStr"/>
-      <c r="BI107" t="inlineStr"/>
-      <c r="BJ107" t="inlineStr"/>
-      <c r="BK107" t="inlineStr"/>
-      <c r="BL107" t="inlineStr"/>
-      <c r="BM107" t="inlineStr"/>
-      <c r="BN107" t="inlineStr"/>
-      <c r="BO107" t="inlineStr"/>
-      <c r="BP107" t="inlineStr"/>
-      <c r="BQ107" t="inlineStr"/>
-      <c r="BR107" t="inlineStr"/>
-      <c r="BS107" t="inlineStr"/>
-      <c r="BT107" t="n">
-        <v>-0.3300000131130219</v>
-      </c>
-      <c r="BU107" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV107" t="inlineStr"/>
-      <c r="BW107" t="inlineStr"/>
-      <c r="BX107" t="inlineStr"/>
-      <c r="BY107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Shield Cortex Interface</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E108" t="n">
-        <v>3</v>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>3</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
-      <c r="AB108" t="inlineStr"/>
-      <c r="AC108" t="inlineStr"/>
-      <c r="AD108" t="inlineStr"/>
-      <c r="AE108" t="inlineStr"/>
-      <c r="AF108" t="inlineStr"/>
-      <c r="AG108" t="inlineStr"/>
-      <c r="AH108" t="inlineStr"/>
-      <c r="AI108" t="inlineStr"/>
-      <c r="AJ108" t="inlineStr"/>
-      <c r="AK108" t="inlineStr"/>
-      <c r="AL108" t="inlineStr"/>
-      <c r="AM108" t="inlineStr"/>
-      <c r="AN108" t="inlineStr"/>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
-      <c r="AS108" t="inlineStr"/>
-      <c r="AT108" t="inlineStr"/>
-      <c r="AU108" t="inlineStr"/>
-      <c r="AV108" t="inlineStr"/>
-      <c r="AW108" t="inlineStr"/>
-      <c r="AX108" t="inlineStr"/>
-      <c r="AY108" t="n">
-        <v>-0.05000000074505806</v>
-      </c>
-      <c r="AZ108" t="inlineStr"/>
-      <c r="BA108" t="inlineStr"/>
-      <c r="BB108" t="inlineStr"/>
-      <c r="BC108" t="inlineStr"/>
-      <c r="BD108" t="inlineStr"/>
-      <c r="BE108" t="inlineStr"/>
-      <c r="BF108" t="inlineStr"/>
-      <c r="BG108" t="inlineStr"/>
-      <c r="BH108" t="inlineStr"/>
-      <c r="BI108" t="inlineStr"/>
-      <c r="BJ108" t="inlineStr"/>
-      <c r="BK108" t="inlineStr"/>
-      <c r="BL108" t="inlineStr"/>
-      <c r="BM108" t="inlineStr"/>
-      <c r="BN108" t="inlineStr"/>
-      <c r="BO108" t="inlineStr"/>
-      <c r="BP108" t="inlineStr"/>
-      <c r="BQ108" t="inlineStr"/>
-      <c r="BR108" t="inlineStr"/>
-      <c r="BS108" t="inlineStr"/>
-      <c r="BT108" t="n">
-        <v>0.3300000131130219</v>
-      </c>
-      <c r="BU108" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BV108" t="inlineStr"/>
-      <c r="BW108" t="inlineStr"/>
-      <c r="BX108" t="inlineStr"/>
-      <c r="BY108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Successor Cooling</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>94000</v>
-      </c>
-      <c r="E109" t="n">
-        <v>8</v>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>8</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
-      <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr"/>
-      <c r="AF109" t="inlineStr"/>
-      <c r="AG109" t="inlineStr"/>
-      <c r="AH109" t="inlineStr"/>
-      <c r="AI109" t="inlineStr"/>
-      <c r="AJ109" t="inlineStr"/>
-      <c r="AK109" t="inlineStr"/>
-      <c r="AL109" t="inlineStr"/>
-      <c r="AM109" t="inlineStr"/>
-      <c r="AN109" t="inlineStr"/>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
-      <c r="AS109" t="inlineStr"/>
-      <c r="AT109" t="inlineStr"/>
-      <c r="AU109" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV109" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="AW109" t="inlineStr"/>
-      <c r="AX109" t="inlineStr"/>
-      <c r="AY109" t="inlineStr"/>
-      <c r="AZ109" t="inlineStr"/>
-      <c r="BA109" t="inlineStr"/>
-      <c r="BB109" t="inlineStr"/>
-      <c r="BC109" t="inlineStr"/>
-      <c r="BD109" t="inlineStr"/>
-      <c r="BE109" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BF109" t="inlineStr"/>
-      <c r="BG109" t="inlineStr"/>
-      <c r="BH109" t="inlineStr"/>
-      <c r="BI109" t="inlineStr"/>
-      <c r="BJ109" t="inlineStr"/>
-      <c r="BK109" t="inlineStr"/>
-      <c r="BL109" t="inlineStr"/>
-      <c r="BM109" t="inlineStr"/>
-      <c r="BN109" t="inlineStr"/>
-      <c r="BO109" t="inlineStr"/>
-      <c r="BP109" t="inlineStr"/>
-      <c r="BQ109" t="inlineStr"/>
-      <c r="BR109" t="inlineStr"/>
-      <c r="BS109" t="inlineStr"/>
-      <c r="BT109" t="inlineStr"/>
-      <c r="BU109" t="inlineStr"/>
-      <c r="BV109" t="inlineStr"/>
-      <c r="BW109" t="inlineStr"/>
-      <c r="BX109" t="inlineStr"/>
-      <c r="BY109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Successor Fuel Sail</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>112000</v>
-      </c>
-      <c r="E110" t="n">
-        <v>4</v>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="n">
-        <v>6</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>14</v>
-      </c>
-      <c r="M110" t="n">
-        <v>4</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="n">
-        <v>0.1000000014901161</v>
-      </c>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
-      <c r="AC110" t="inlineStr"/>
-      <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr"/>
-      <c r="AF110" t="inlineStr"/>
-      <c r="AG110" t="inlineStr"/>
-      <c r="AH110" t="inlineStr"/>
-      <c r="AI110" t="inlineStr"/>
-      <c r="AJ110" t="inlineStr"/>
-      <c r="AK110" t="inlineStr"/>
-      <c r="AL110" t="inlineStr"/>
-      <c r="AM110" t="inlineStr"/>
-      <c r="AN110" t="inlineStr"/>
-      <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
-      <c r="AS110" t="inlineStr"/>
-      <c r="AT110" t="inlineStr"/>
-      <c r="AU110" t="inlineStr"/>
-      <c r="AV110" t="inlineStr"/>
-      <c r="AW110" t="inlineStr"/>
-      <c r="AX110" t="inlineStr"/>
-      <c r="AY110" t="inlineStr"/>
-      <c r="AZ110" t="inlineStr"/>
-      <c r="BA110" t="inlineStr"/>
-      <c r="BB110" t="inlineStr"/>
-      <c r="BC110" t="inlineStr"/>
-      <c r="BD110" t="inlineStr"/>
-      <c r="BE110" t="inlineStr"/>
-      <c r="BF110" t="inlineStr"/>
-      <c r="BG110" t="inlineStr"/>
-      <c r="BH110" t="inlineStr"/>
-      <c r="BI110" t="inlineStr"/>
-      <c r="BJ110" t="inlineStr"/>
-      <c r="BK110" t="inlineStr"/>
-      <c r="BL110" t="inlineStr"/>
-      <c r="BM110" t="inlineStr"/>
-      <c r="BN110" t="inlineStr"/>
-      <c r="BO110" t="inlineStr"/>
-      <c r="BP110" t="inlineStr"/>
-      <c r="BQ110" t="inlineStr"/>
-      <c r="BR110" t="inlineStr"/>
-      <c r="BS110" t="inlineStr"/>
-      <c r="BT110" t="inlineStr"/>
-      <c r="BU110" t="inlineStr"/>
-      <c r="BV110" t="inlineStr"/>
-      <c r="BW110" t="inlineStr"/>
-      <c r="BX110" t="inlineStr"/>
-      <c r="BY110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>`"Veldt" Combat Scanner`</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>220000</v>
-      </c>
-      <c r="E111" t="n">
-        <v>6</v>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>6</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="n">
-        <v>0.119999997317791</v>
-      </c>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC111" t="inlineStr"/>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr"/>
-      <c r="AH111" t="inlineStr"/>
-      <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="inlineStr"/>
-      <c r="AK111" t="inlineStr"/>
-      <c r="AL111" t="inlineStr"/>
-      <c r="AM111" t="inlineStr"/>
-      <c r="AN111" t="inlineStr"/>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
-      <c r="AT111" t="inlineStr"/>
-      <c r="AU111" t="inlineStr"/>
-      <c r="AV111" t="inlineStr"/>
-      <c r="AW111" t="inlineStr"/>
-      <c r="AX111" t="inlineStr"/>
-      <c r="AY111" t="inlineStr"/>
-      <c r="AZ111" t="inlineStr"/>
-      <c r="BA111" t="inlineStr"/>
-      <c r="BB111" t="inlineStr"/>
-      <c r="BC111" t="inlineStr"/>
-      <c r="BD111" t="inlineStr"/>
-      <c r="BE111" t="inlineStr"/>
-      <c r="BF111" t="inlineStr"/>
-      <c r="BG111" t="inlineStr"/>
-      <c r="BH111" t="inlineStr"/>
-      <c r="BI111" t="inlineStr"/>
-      <c r="BJ111" t="inlineStr"/>
-      <c r="BK111" t="inlineStr"/>
-      <c r="BL111" t="inlineStr"/>
-      <c r="BM111" t="inlineStr"/>
-      <c r="BN111" t="inlineStr"/>
-      <c r="BO111" t="inlineStr"/>
-      <c r="BP111" t="inlineStr"/>
-      <c r="BQ111" t="inlineStr"/>
-      <c r="BR111" t="inlineStr"/>
-      <c r="BS111" t="inlineStr"/>
-      <c r="BT111" t="inlineStr"/>
-      <c r="BU111" t="inlineStr"/>
-      <c r="BV111" t="inlineStr"/>
-      <c r="BW111" t="inlineStr"/>
-      <c r="BX111" t="inlineStr"/>
-      <c r="BY111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>`"Tuur" Scanning Suite`</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>220000</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4</v>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>4</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="n">
-        <v>0.1000000014901161</v>
-      </c>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
-      <c r="AK112" t="inlineStr"/>
-      <c r="AL112" t="inlineStr"/>
-      <c r="AM112" t="inlineStr"/>
-      <c r="AN112" t="inlineStr"/>
-      <c r="AO112" t="inlineStr"/>
-      <c r="AP112" t="inlineStr"/>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
-      <c r="AT112" t="inlineStr"/>
-      <c r="AU112" t="inlineStr"/>
-      <c r="AV112" t="inlineStr"/>
-      <c r="AW112" t="inlineStr"/>
-      <c r="AX112" t="inlineStr"/>
-      <c r="AY112" t="inlineStr"/>
-      <c r="AZ112" t="inlineStr"/>
-      <c r="BA112" t="inlineStr"/>
-      <c r="BB112" t="inlineStr"/>
-      <c r="BC112" t="inlineStr"/>
-      <c r="BD112" t="inlineStr"/>
-      <c r="BE112" t="inlineStr"/>
-      <c r="BF112" t="inlineStr"/>
-      <c r="BG112" t="inlineStr"/>
-      <c r="BH112" t="inlineStr"/>
-      <c r="BI112" t="inlineStr"/>
-      <c r="BJ112" t="inlineStr"/>
-      <c r="BK112" t="inlineStr"/>
-      <c r="BL112" t="inlineStr"/>
-      <c r="BM112" t="inlineStr"/>
-      <c r="BN112" t="inlineStr"/>
-      <c r="BO112" t="inlineStr"/>
-      <c r="BP112" t="inlineStr"/>
-      <c r="BQ112" t="inlineStr"/>
-      <c r="BR112" t="inlineStr"/>
-      <c r="BS112" t="inlineStr"/>
-      <c r="BT112" t="inlineStr"/>
-      <c r="BU112" t="inlineStr"/>
-      <c r="BV112" t="inlineStr"/>
-      <c r="BW112" t="inlineStr"/>
-      <c r="BX112" t="inlineStr"/>
-      <c r="BY112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Multimodal Armor: Heavy</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr"/>
-      <c r="AH113" t="inlineStr"/>
-      <c r="AI113" t="inlineStr"/>
-      <c r="AJ113" t="inlineStr"/>
-      <c r="AK113" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL113" t="inlineStr"/>
-      <c r="AM113" t="inlineStr"/>
-      <c r="AN113" t="inlineStr"/>
-      <c r="AO113" t="inlineStr"/>
-      <c r="AP113" t="inlineStr"/>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
-      <c r="AS113" t="inlineStr"/>
-      <c r="AT113" t="inlineStr"/>
-      <c r="AU113" t="inlineStr"/>
-      <c r="AV113" t="inlineStr"/>
-      <c r="AW113" t="inlineStr"/>
-      <c r="AX113" t="inlineStr"/>
-      <c r="AY113" t="inlineStr"/>
-      <c r="AZ113" t="inlineStr"/>
-      <c r="BA113" t="inlineStr"/>
-      <c r="BB113" t="inlineStr"/>
-      <c r="BC113" t="inlineStr"/>
-      <c r="BD113" t="inlineStr"/>
-      <c r="BE113" t="inlineStr"/>
-      <c r="BF113" t="inlineStr"/>
-      <c r="BG113" t="inlineStr"/>
-      <c r="BH113" t="inlineStr"/>
-      <c r="BI113" t="inlineStr"/>
-      <c r="BJ113" t="inlineStr"/>
-      <c r="BK113" t="inlineStr"/>
-      <c r="BL113" t="inlineStr"/>
-      <c r="BM113" t="inlineStr"/>
-      <c r="BN113" t="inlineStr"/>
-      <c r="BO113" t="inlineStr"/>
-      <c r="BP113" t="inlineStr"/>
-      <c r="BQ113" t="inlineStr"/>
-      <c r="BR113" t="inlineStr"/>
-      <c r="BS113" t="inlineStr"/>
-      <c r="BT113" t="inlineStr"/>
-      <c r="BU113" t="inlineStr"/>
-      <c r="BV113" t="n">
-        <v>0.2000000029802322</v>
-      </c>
-      <c r="BW113" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BX113" t="inlineStr"/>
-      <c r="BY113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Multimodal Armor: Keystone</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="n">
-        <v>3</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
-      <c r="AF114" t="inlineStr"/>
-      <c r="AG114" t="inlineStr"/>
-      <c r="AH114" t="inlineStr"/>
-      <c r="AI114" t="inlineStr"/>
-      <c r="AJ114" t="inlineStr"/>
-      <c r="AK114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL114" t="inlineStr"/>
-      <c r="AM114" t="inlineStr"/>
-      <c r="AN114" t="inlineStr"/>
-      <c r="AO114" t="inlineStr"/>
-      <c r="AP114" t="inlineStr"/>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
-      <c r="AT114" t="inlineStr"/>
-      <c r="AU114" t="inlineStr"/>
-      <c r="AV114" t="inlineStr"/>
-      <c r="AW114" t="inlineStr"/>
-      <c r="AX114" t="inlineStr"/>
-      <c r="AY114" t="inlineStr"/>
-      <c r="AZ114" t="inlineStr"/>
-      <c r="BA114" t="inlineStr"/>
-      <c r="BB114" t="inlineStr"/>
-      <c r="BC114" t="inlineStr"/>
-      <c r="BD114" t="inlineStr"/>
-      <c r="BE114" t="inlineStr"/>
-      <c r="BF114" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG114" t="inlineStr"/>
-      <c r="BH114" t="inlineStr"/>
-      <c r="BI114" t="inlineStr"/>
-      <c r="BJ114" t="inlineStr"/>
-      <c r="BK114" t="inlineStr"/>
-      <c r="BL114" t="inlineStr"/>
-      <c r="BM114" t="inlineStr"/>
-      <c r="BN114" t="inlineStr"/>
-      <c r="BO114" t="inlineStr"/>
-      <c r="BP114" t="inlineStr"/>
-      <c r="BQ114" t="inlineStr"/>
-      <c r="BR114" t="inlineStr"/>
-      <c r="BS114" t="inlineStr"/>
-      <c r="BT114" t="inlineStr"/>
-      <c r="BU114" t="inlineStr"/>
-      <c r="BV114" t="inlineStr"/>
-      <c r="BW114" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BX114" t="inlineStr"/>
-      <c r="BY114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Multimodal Armor: Regen</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="inlineStr"/>
-      <c r="AD115" t="inlineStr"/>
-      <c r="AE115" t="inlineStr"/>
-      <c r="AF115" t="inlineStr"/>
-      <c r="AG115" t="inlineStr"/>
-      <c r="AH115" t="inlineStr"/>
-      <c r="AI115" t="inlineStr"/>
-      <c r="AJ115" t="inlineStr"/>
-      <c r="AK115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL115" t="inlineStr"/>
-      <c r="AM115" t="inlineStr"/>
-      <c r="AN115" t="inlineStr"/>
-      <c r="AO115" t="inlineStr"/>
-      <c r="AP115" t="inlineStr"/>
-      <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
-      <c r="AS115" t="inlineStr"/>
-      <c r="AT115" t="inlineStr"/>
-      <c r="AU115" t="inlineStr"/>
-      <c r="AV115" t="inlineStr"/>
-      <c r="AW115" t="inlineStr"/>
-      <c r="AX115" t="inlineStr"/>
-      <c r="AY115" t="inlineStr"/>
-      <c r="AZ115" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="BA115" t="inlineStr"/>
-      <c r="BB115" t="inlineStr"/>
-      <c r="BC115" t="inlineStr"/>
-      <c r="BD115" t="inlineStr"/>
-      <c r="BE115" t="inlineStr"/>
-      <c r="BF115" t="inlineStr"/>
-      <c r="BG115" t="inlineStr"/>
-      <c r="BH115" t="inlineStr"/>
-      <c r="BI115" t="inlineStr"/>
-      <c r="BJ115" t="inlineStr"/>
-      <c r="BK115" t="inlineStr"/>
-      <c r="BL115" t="inlineStr"/>
-      <c r="BM115" t="inlineStr"/>
-      <c r="BN115" t="inlineStr"/>
-      <c r="BO115" t="inlineStr"/>
-      <c r="BP115" t="inlineStr"/>
-      <c r="BQ115" t="inlineStr"/>
-      <c r="BR115" t="inlineStr"/>
-      <c r="BS115" t="inlineStr"/>
-      <c r="BT115" t="inlineStr"/>
-      <c r="BU115" t="inlineStr"/>
-      <c r="BV115" t="inlineStr"/>
-      <c r="BW115" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BX115" t="inlineStr"/>
-      <c r="BY115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Multimodal Armor: Resilient</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="inlineStr"/>
-      <c r="AC116" t="inlineStr"/>
-      <c r="AD116" t="inlineStr"/>
-      <c r="AE116" t="inlineStr"/>
-      <c r="AF116" t="inlineStr"/>
-      <c r="AG116" t="inlineStr"/>
-      <c r="AH116" t="inlineStr"/>
-      <c r="AI116" t="inlineStr"/>
-      <c r="AJ116" t="inlineStr"/>
-      <c r="AK116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL116" t="inlineStr"/>
-      <c r="AM116" t="inlineStr"/>
-      <c r="AN116" t="inlineStr"/>
-      <c r="AO116" t="inlineStr"/>
-      <c r="AP116" t="inlineStr"/>
-      <c r="AQ116" t="inlineStr"/>
-      <c r="AR116" t="inlineStr"/>
-      <c r="AS116" t="inlineStr"/>
-      <c r="AT116" t="inlineStr"/>
-      <c r="AU116" t="inlineStr"/>
-      <c r="AV116" t="inlineStr"/>
-      <c r="AW116" t="inlineStr"/>
-      <c r="AX116" t="inlineStr"/>
-      <c r="AY116" t="inlineStr"/>
-      <c r="AZ116" t="inlineStr"/>
-      <c r="BA116" t="inlineStr"/>
-      <c r="BB116" t="inlineStr"/>
-      <c r="BC116" t="inlineStr"/>
-      <c r="BD116" t="inlineStr"/>
-      <c r="BE116" t="inlineStr"/>
-      <c r="BF116" t="inlineStr"/>
-      <c r="BG116" t="inlineStr"/>
-      <c r="BH116" t="inlineStr"/>
-      <c r="BI116" t="inlineStr"/>
-      <c r="BJ116" t="inlineStr"/>
-      <c r="BK116" t="inlineStr"/>
-      <c r="BL116" t="inlineStr"/>
-      <c r="BM116" t="inlineStr"/>
-      <c r="BN116" t="inlineStr"/>
-      <c r="BO116" t="inlineStr"/>
-      <c r="BP116" t="inlineStr"/>
-      <c r="BQ116" t="inlineStr"/>
-      <c r="BR116" t="inlineStr"/>
-      <c r="BS116" t="inlineStr"/>
-      <c r="BT116" t="inlineStr"/>
-      <c r="BU116" t="inlineStr"/>
-      <c r="BV116" t="inlineStr"/>
-      <c r="BW116" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BX116" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BY116" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Bright Cloud Shielding</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>220000</v>
-      </c>
-      <c r="E117" t="n">
-        <v>19</v>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>19</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
-      <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr"/>
-      <c r="AF117" t="inlineStr"/>
-      <c r="AG117" t="inlineStr"/>
-      <c r="AH117" t="inlineStr"/>
-      <c r="AI117" t="inlineStr"/>
-      <c r="AJ117" t="inlineStr"/>
-      <c r="AK117" t="inlineStr"/>
-      <c r="AL117" t="inlineStr"/>
-      <c r="AM117" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO117" t="inlineStr"/>
-      <c r="AP117" t="inlineStr"/>
-      <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
-      <c r="AT117" t="inlineStr"/>
-      <c r="AU117" t="inlineStr"/>
-      <c r="AV117" t="inlineStr"/>
-      <c r="AW117" t="inlineStr"/>
-      <c r="AX117" t="inlineStr"/>
-      <c r="AY117" t="inlineStr"/>
-      <c r="AZ117" t="inlineStr"/>
-      <c r="BA117" t="inlineStr"/>
-      <c r="BB117" t="inlineStr"/>
-      <c r="BC117" t="inlineStr"/>
-      <c r="BD117" t="inlineStr"/>
-      <c r="BE117" t="inlineStr"/>
-      <c r="BF117" t="inlineStr"/>
-      <c r="BG117" t="inlineStr"/>
-      <c r="BH117" t="inlineStr"/>
-      <c r="BI117" t="inlineStr"/>
-      <c r="BJ117" t="inlineStr"/>
-      <c r="BK117" t="inlineStr"/>
-      <c r="BL117" t="inlineStr"/>
-      <c r="BM117" t="inlineStr"/>
-      <c r="BN117" t="inlineStr"/>
-      <c r="BO117" t="inlineStr"/>
-      <c r="BP117" t="inlineStr"/>
-      <c r="BQ117" t="inlineStr"/>
-      <c r="BR117" t="inlineStr"/>
-      <c r="BS117" t="inlineStr"/>
-      <c r="BT117" t="inlineStr"/>
-      <c r="BU117" t="inlineStr"/>
-      <c r="BV117" t="inlineStr"/>
-      <c r="BW117" t="inlineStr"/>
-      <c r="BX117" t="inlineStr"/>
-      <c r="BY117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Dark Storm Shielding</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>800000</v>
-      </c>
-      <c r="E118" t="n">
-        <v>41</v>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>41</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
-      <c r="AC118" t="inlineStr"/>
-      <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr"/>
-      <c r="AF118" t="inlineStr"/>
-      <c r="AG118" t="inlineStr"/>
-      <c r="AH118" t="inlineStr"/>
-      <c r="AI118" t="inlineStr"/>
-      <c r="AJ118" t="inlineStr"/>
-      <c r="AK118" t="inlineStr"/>
-      <c r="AL118" t="inlineStr"/>
-      <c r="AM118" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AN118" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO118" t="inlineStr"/>
-      <c r="AP118" t="inlineStr"/>
-      <c r="AQ118" t="inlineStr"/>
-      <c r="AR118" t="inlineStr"/>
-      <c r="AS118" t="inlineStr"/>
-      <c r="AT118" t="inlineStr"/>
-      <c r="AU118" t="inlineStr"/>
-      <c r="AV118" t="inlineStr"/>
-      <c r="AW118" t="inlineStr"/>
-      <c r="AX118" t="inlineStr"/>
-      <c r="AY118" t="inlineStr"/>
-      <c r="AZ118" t="inlineStr"/>
-      <c r="BA118" t="inlineStr"/>
-      <c r="BB118" t="inlineStr"/>
-      <c r="BC118" t="inlineStr"/>
-      <c r="BD118" t="inlineStr"/>
-      <c r="BE118" t="inlineStr"/>
-      <c r="BF118" t="inlineStr"/>
-      <c r="BG118" t="inlineStr"/>
-      <c r="BH118" t="inlineStr"/>
-      <c r="BI118" t="inlineStr"/>
-      <c r="BJ118" t="inlineStr"/>
-      <c r="BK118" t="inlineStr"/>
-      <c r="BL118" t="inlineStr"/>
-      <c r="BM118" t="inlineStr"/>
-      <c r="BN118" t="inlineStr"/>
-      <c r="BO118" t="inlineStr"/>
-      <c r="BP118" t="inlineStr"/>
-      <c r="BQ118" t="inlineStr"/>
-      <c r="BR118" t="inlineStr"/>
-      <c r="BS118" t="inlineStr"/>
-      <c r="BT118" t="inlineStr"/>
-      <c r="BU118" t="inlineStr"/>
-      <c r="BV118" t="inlineStr"/>
-      <c r="BW118" t="inlineStr"/>
-      <c r="BX118" t="inlineStr"/>
-      <c r="BY118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Wanderer Ramscoop</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>460000</v>
-      </c>
-      <c r="E119" t="n">
-        <v>7</v>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>7</v>
-      </c>
-      <c r="M119" t="n">
-        <v>4</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
-      <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr"/>
-      <c r="AF119" t="inlineStr"/>
-      <c r="AG119" t="inlineStr"/>
-      <c r="AH119" t="inlineStr"/>
-      <c r="AI119" t="inlineStr"/>
-      <c r="AJ119" t="inlineStr"/>
-      <c r="AK119" t="inlineStr"/>
-      <c r="AL119" t="inlineStr"/>
-      <c r="AM119" t="inlineStr"/>
-      <c r="AN119" t="inlineStr"/>
-      <c r="AO119" t="inlineStr"/>
-      <c r="AP119" t="inlineStr"/>
-      <c r="AQ119" t="inlineStr"/>
-      <c r="AR119" t="inlineStr"/>
-      <c r="AS119" t="inlineStr"/>
-      <c r="AT119" t="inlineStr"/>
-      <c r="AU119" t="inlineStr"/>
-      <c r="AV119" t="inlineStr"/>
-      <c r="AW119" t="inlineStr"/>
-      <c r="AX119" t="inlineStr"/>
-      <c r="AY119" t="inlineStr"/>
-      <c r="AZ119" t="inlineStr"/>
-      <c r="BA119" t="inlineStr"/>
-      <c r="BB119" t="inlineStr"/>
-      <c r="BC119" t="inlineStr"/>
-      <c r="BD119" t="inlineStr"/>
-      <c r="BE119" t="inlineStr"/>
-      <c r="BF119" t="inlineStr"/>
-      <c r="BG119" t="inlineStr"/>
-      <c r="BH119" t="inlineStr"/>
-      <c r="BI119" t="inlineStr"/>
-      <c r="BJ119" t="inlineStr"/>
-      <c r="BK119" t="inlineStr"/>
-      <c r="BL119" t="inlineStr"/>
-      <c r="BM119" t="inlineStr"/>
-      <c r="BN119" t="inlineStr"/>
-      <c r="BO119" t="inlineStr"/>
-      <c r="BP119" t="inlineStr"/>
-      <c r="BQ119" t="inlineStr"/>
-      <c r="BR119" t="inlineStr"/>
-      <c r="BS119" t="inlineStr"/>
-      <c r="BT119" t="inlineStr"/>
-      <c r="BU119" t="inlineStr"/>
-      <c r="BV119" t="inlineStr"/>
-      <c r="BW119" t="inlineStr"/>
-      <c r="BX119" t="inlineStr"/>
-      <c r="BY119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Wanderer Heat Sink</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Systems</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>94000</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12</v>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>12</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
-      <c r="AC120" t="inlineStr"/>
-      <c r="AD120" t="inlineStr"/>
-      <c r="AE120" t="inlineStr"/>
-      <c r="AF120" t="inlineStr"/>
-      <c r="AG120" t="inlineStr"/>
-      <c r="AH120" t="inlineStr"/>
-      <c r="AI120" t="inlineStr"/>
-      <c r="AJ120" t="inlineStr"/>
-      <c r="AK120" t="inlineStr"/>
-      <c r="AL120" t="inlineStr"/>
-      <c r="AM120" t="inlineStr"/>
-      <c r="AN120" t="inlineStr"/>
-      <c r="AO120" t="inlineStr"/>
-      <c r="AP120" t="inlineStr"/>
-      <c r="AQ120" t="inlineStr"/>
-      <c r="AR120" t="inlineStr"/>
-      <c r="AS120" t="inlineStr"/>
-      <c r="AT120" t="inlineStr"/>
-      <c r="AU120" t="inlineStr"/>
-      <c r="AV120" t="inlineStr"/>
-      <c r="AW120" t="inlineStr"/>
-      <c r="AX120" t="inlineStr"/>
-      <c r="AY120" t="inlineStr"/>
-      <c r="AZ120" t="inlineStr"/>
-      <c r="BA120" t="inlineStr"/>
-      <c r="BB120" t="inlineStr"/>
-      <c r="BC120" t="inlineStr"/>
-      <c r="BD120" t="inlineStr"/>
-      <c r="BE120" t="n">
-        <v>19</v>
-      </c>
-      <c r="BF120" t="inlineStr"/>
-      <c r="BG120" t="inlineStr"/>
-      <c r="BH120" t="inlineStr"/>
-      <c r="BI120" t="inlineStr"/>
-      <c r="BJ120" t="inlineStr"/>
-      <c r="BK120" t="inlineStr"/>
-      <c r="BL120" t="inlineStr"/>
-      <c r="BM120" t="inlineStr"/>
-      <c r="BN120" t="inlineStr"/>
-      <c r="BO120" t="inlineStr"/>
-      <c r="BP120" t="inlineStr"/>
-      <c r="BQ120" t="inlineStr"/>
-      <c r="BR120" t="inlineStr"/>
-      <c r="BS120" t="inlineStr"/>
-      <c r="BT120" t="inlineStr"/>
-      <c r="BU120" t="inlineStr"/>
-      <c r="BV120" t="inlineStr"/>
-      <c r="BW120" t="inlineStr"/>
-      <c r="BX120" t="inlineStr"/>
-      <c r="BY120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
